--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1381355.324722595</v>
+        <v>1395883.624901396</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3367935.716553657</v>
+        <v>3367935.716553658</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>16.4657810891423</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="H11" t="n">
-        <v>16.4657810891422</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S11" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>119.7997250105794</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>105.5195977893184</v>
+        <v>33.95774413133302</v>
       </c>
       <c r="T12" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="U12" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>119.7997250105794</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>105.5195977893183</v>
       </c>
       <c r="J13" t="n">
-        <v>62.65579858706204</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,31 +1572,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.79726926825033</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>119.7997250105794</v>
       </c>
-      <c r="S13" t="n">
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>119.7997250105794</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>112.8662549445854</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>16.46578108914227</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>105.5195977893184</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="V14" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>33.95774413133302</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5195977893183</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>119.7997250105794</v>
@@ -1743,7 +1745,7 @@
         <v>119.7997250105794</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1765,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>42.86379920225627</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>119.7997250105794</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
       <c r="W16" t="n">
-        <v>42.86379920225627</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
     </row>
     <row r="17">
@@ -1853,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>279.6806999267144</v>
+        <v>180.6481197261039</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.9584425864056</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2682012277493</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>96.44591768023652</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H18" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>71.56185365798537</v>
@@ -1983,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>177.1739039471227</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>48.26502254358132</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>62.65579858706204</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R19" t="n">
         <v>157.7667197755937</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>257.3547837772126</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>171.9057189040341</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.334591514045</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.5597768821036</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2682012277493</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>343.8973461718723</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2162,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H21" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,13 +2219,13 @@
         <v>225.9073028850638</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>67.5110885287622</v>
       </c>
       <c r="X21" t="n">
-        <v>92.61494020165702</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.24407707924494</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>157.7667197755937</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0900423897169</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>20.62905470887184</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>156.8944937687413</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>126.9936714862096</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2397,25 +2399,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>1.100472418175916</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>136.8255133853633</v>
       </c>
       <c r="H24" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>67.9961609982239</v>
       </c>
       <c r="S24" t="n">
-        <v>110.3459360279102</v>
+        <v>162.0614781249621</v>
       </c>
       <c r="T24" t="n">
         <v>198.0768099586736</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9073028850638</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>226.0900423897169</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>31.96181183789672</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>189.0314611630894</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>179.2950416023637</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>70.62925614088159</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>186.9584425864056</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2639,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I27" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2684,13 @@
         <v>67.9961609982239</v>
       </c>
       <c r="S27" t="n">
-        <v>122.9331341155048</v>
+        <v>162.0614781249621</v>
       </c>
       <c r="T27" t="n">
         <v>198.0768099586736</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9073028850638</v>
+        <v>113.599841688031</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.02126601006778</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>142.3905821537013</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.79726926825033</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>157.7667197755937</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>216.4483349030821</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>90.70371814238074</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>274.1359433206291</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.334591514045</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>137.2530323624236</v>
       </c>
       <c r="I29" t="n">
         <v>173.1514408633813</v>
@@ -2837,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2682012277493</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,25 +2873,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8255133853633</v>
+        <v>38.72484555062147</v>
       </c>
       <c r="H30" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,7 +2927,7 @@
         <v>198.0768099586736</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9073028850638</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2937,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.36770678374397</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2992,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>22.38039552825764</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>216.4483349030821</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.0900423897169</v>
       </c>
       <c r="U31" t="n">
-        <v>286.295341521956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>178.6234312991006</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.334591514045</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>173.1514408633813</v>
+        <v>123.222252251132</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>186.9584425864056</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>236.9909982573867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>80.47489860321328</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>118.5167364459442</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8255133853633</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>71.56185365798537</v>
@@ -3159,19 +3161,19 @@
         <v>162.0614781249621</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.0768099586736</v>
       </c>
       <c r="U33" t="n">
         <v>225.9073028850638</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3229,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>157.7667197755937</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>31.26474138749566</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>226.0900423897169</v>
       </c>
       <c r="U34" t="n">
-        <v>286.295341521956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>178.6234312991006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>282.6362718573349</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>120.2244636294889</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.5597768821036</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14.2074951036559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8255133853633</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.2326182767599</v>
@@ -3396,7 +3398,7 @@
         <v>162.0614781249621</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.0768099586736</v>
       </c>
       <c r="U36" t="n">
         <v>225.9073028850638</v>
@@ -3408,10 +3410,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>195.5028426900046</v>
       </c>
     </row>
     <row r="37">
@@ -3427,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>103.0493898950433</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>216.4483349030821</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>212.7811294972286</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>105.7349289688053</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>414.334591514045</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>329.5597768821036</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.8577904443596</v>
+        <v>32.17788759430373</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>30.91264974217254</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3633,13 +3635,13 @@
         <v>162.0614781249621</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.0768099586736</v>
       </c>
       <c r="U39" t="n">
         <v>225.9073028850638</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>59.4611115944758</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3703,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>157.7667197755937</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>31.26474138749566</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.0900423897169</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>178.3957744844656</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>105.5195977893184</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>105.5195977893184</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>119.7997250105794</v>
@@ -3806,7 +3808,7 @@
         <v>119.7997250105794</v>
       </c>
       <c r="Y41" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>33.95774413133297</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5195977893184</v>
       </c>
       <c r="I42" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="T42" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="U42" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>119.7997250105794</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.5195977893184</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
         <v>119.7997250105794</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>105.5195977893183</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>105.5195977893184</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>16.4657810891423</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>119.7997250105794</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>119.7997250105794</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>119.7997250105794</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>119.7997250105794</v>
+      </c>
+      <c r="F45" t="n">
         <v>105.5195977893184</v>
       </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
       <c r="G45" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4119,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>119.7997250105794</v>
@@ -4144,10 +4146,10 @@
         <v>119.7997250105794</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="G46" t="n">
-        <v>119.7997250105794</v>
+        <v>105.5195977893184</v>
       </c>
       <c r="H46" t="n">
         <v>119.7997250105794</v>
@@ -4198,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>105.5195977893184</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.216080111091</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="C11" t="n">
-        <v>26.216080111091</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="D11" t="n">
-        <v>26.216080111091</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="E11" t="n">
-        <v>26.216080111091</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="F11" t="n">
-        <v>26.216080111091</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="G11" t="n">
-        <v>26.216080111091</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="H11" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="I11" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J11" t="n">
-        <v>9.583978000846354</v>
+        <v>29.78112127283396</v>
       </c>
       <c r="K11" t="n">
-        <v>9.583978000846354</v>
+        <v>29.78112127283396</v>
       </c>
       <c r="L11" t="n">
-        <v>128.18570576132</v>
+        <v>29.78112127283396</v>
       </c>
       <c r="M11" t="n">
-        <v>246.7874335217936</v>
+        <v>148.3828490333076</v>
       </c>
       <c r="N11" t="n">
-        <v>365.3891612822673</v>
+        <v>266.9845767937812</v>
       </c>
       <c r="O11" t="n">
-        <v>479.1989000423177</v>
+        <v>266.9845767937812</v>
       </c>
       <c r="P11" t="n">
-        <v>479.1989000423177</v>
+        <v>385.5863045542549</v>
       </c>
       <c r="Q11" t="n">
         <v>479.1989000423177</v>
       </c>
       <c r="R11" t="n">
-        <v>389.2455498401196</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="S11" t="n">
-        <v>268.23572659711</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="T11" t="n">
-        <v>147.2259033541005</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="U11" t="n">
-        <v>26.216080111091</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="V11" t="n">
-        <v>26.216080111091</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="W11" t="n">
-        <v>26.216080111091</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="X11" t="n">
-        <v>26.216080111091</v>
+        <v>147.2259033541006</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.216080111091</v>
+        <v>147.2259033541006</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="C12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="D12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="E12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="F12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="G12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="H12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="I12" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J12" t="n">
-        <v>57.29544988971256</v>
+        <v>57.29544988971257</v>
       </c>
       <c r="K12" t="n">
-        <v>120.0451039938074</v>
+        <v>175.8971776501862</v>
       </c>
       <c r="L12" t="n">
-        <v>238.646831754281</v>
+        <v>294.4989054106599</v>
       </c>
       <c r="M12" t="n">
         <v>357.2485595147547</v>
@@ -5133,10 +5135,10 @@
         <v>360.5971722818441</v>
       </c>
       <c r="O12" t="n">
-        <v>360.5971722818441</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="P12" t="n">
-        <v>360.5971722818441</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="Q12" t="n">
         <v>479.1989000423177</v>
@@ -5145,25 +5147,25 @@
         <v>479.1989000423177</v>
       </c>
       <c r="S12" t="n">
-        <v>372.6134477298749</v>
+        <v>444.8981483945066</v>
       </c>
       <c r="T12" t="n">
-        <v>251.6036244868654</v>
+        <v>323.8883251514971</v>
       </c>
       <c r="U12" t="n">
-        <v>130.5938012438559</v>
+        <v>323.8883251514971</v>
       </c>
       <c r="V12" t="n">
-        <v>9.583978000846354</v>
+        <v>202.8785019084876</v>
       </c>
       <c r="W12" t="n">
-        <v>9.583978000846354</v>
+        <v>202.8785019084876</v>
       </c>
       <c r="X12" t="n">
-        <v>9.583978000846354</v>
+        <v>202.8785019084876</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.87266344232317</v>
+        <v>237.1792535562986</v>
       </c>
       <c r="C13" t="n">
-        <v>72.87266344232317</v>
+        <v>237.1792535562986</v>
       </c>
       <c r="D13" t="n">
-        <v>72.87266344232317</v>
+        <v>116.1694303132891</v>
       </c>
       <c r="E13" t="n">
-        <v>72.87266344232317</v>
+        <v>116.1694303132891</v>
       </c>
       <c r="F13" t="n">
-        <v>72.87266344232317</v>
+        <v>116.1694303132891</v>
       </c>
       <c r="G13" t="n">
-        <v>72.87266344232317</v>
+        <v>116.1694303132891</v>
       </c>
       <c r="H13" t="n">
-        <v>72.87266344232317</v>
+        <v>116.1694303132891</v>
       </c>
       <c r="I13" t="n">
-        <v>72.87266344232317</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J13" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K13" t="n">
-        <v>37.48771777689736</v>
+        <v>37.48771777689738</v>
       </c>
       <c r="L13" t="n">
         <v>128.7213323718421</v>
@@ -5218,31 +5220,31 @@
         <v>479.1989000423177</v>
       </c>
       <c r="Q13" t="n">
-        <v>428.898628054186</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8888048111765</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="S13" t="n">
-        <v>186.878981568167</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="T13" t="n">
-        <v>186.878981568167</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="U13" t="n">
-        <v>186.878981568167</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="V13" t="n">
-        <v>186.878981568167</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="W13" t="n">
-        <v>186.878981568167</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="X13" t="n">
-        <v>72.87266344232317</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.87266344232317</v>
+        <v>237.1792535562986</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.583978000846354</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="C14" t="n">
-        <v>9.583978000846354</v>
+        <v>251.6036244868654</v>
       </c>
       <c r="D14" t="n">
-        <v>9.583978000846354</v>
+        <v>251.6036244868654</v>
       </c>
       <c r="E14" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="F14" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="G14" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="H14" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="I14" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J14" t="n">
-        <v>79.10266138319739</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K14" t="n">
-        <v>197.704389143671</v>
+        <v>128.18570576132</v>
       </c>
       <c r="L14" t="n">
-        <v>197.704389143671</v>
+        <v>246.7874335217936</v>
       </c>
       <c r="M14" t="n">
-        <v>197.704389143671</v>
+        <v>365.3891612822673</v>
       </c>
       <c r="N14" t="n">
-        <v>266.9845767937812</v>
+        <v>365.3891612822673</v>
       </c>
       <c r="O14" t="n">
-        <v>266.9845767937812</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="P14" t="n">
-        <v>385.5863045542549</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="Q14" t="n">
         <v>479.1989000423177</v>
       </c>
       <c r="R14" t="n">
-        <v>479.1989000423177</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="S14" t="n">
-        <v>479.1989000423177</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="T14" t="n">
-        <v>372.6134477298749</v>
+        <v>389.2455498401197</v>
       </c>
       <c r="U14" t="n">
-        <v>251.6036244868654</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="V14" t="n">
-        <v>130.5938012438559</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="W14" t="n">
-        <v>9.583978000846354</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="X14" t="n">
-        <v>9.583978000846354</v>
+        <v>268.2357265971102</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.583978000846354</v>
+        <v>268.2357265971102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="C15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="D15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="E15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="F15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="G15" t="n">
-        <v>116.1694303132891</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="H15" t="n">
-        <v>9.583978000846354</v>
+        <v>81.86867866547804</v>
       </c>
       <c r="I15" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J15" t="n">
-        <v>57.29544988971256</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K15" t="n">
-        <v>57.29544988971256</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="L15" t="n">
-        <v>57.29544988971256</v>
+        <v>123.3937167608968</v>
       </c>
       <c r="M15" t="n">
         <v>123.3937167608968</v>
       </c>
       <c r="N15" t="n">
-        <v>241.9954445213704</v>
+        <v>241.9954445213705</v>
       </c>
       <c r="O15" t="n">
+        <v>241.9954445213705</v>
+      </c>
+      <c r="P15" t="n">
         <v>360.5971722818441</v>
-      </c>
-      <c r="P15" t="n">
-        <v>479.1989000423177</v>
       </c>
       <c r="Q15" t="n">
         <v>479.1989000423177</v>
@@ -5382,25 +5384,25 @@
         <v>479.1989000423177</v>
       </c>
       <c r="S15" t="n">
+        <v>479.1989000423177</v>
+      </c>
+      <c r="T15" t="n">
         <v>358.1890767993082</v>
       </c>
-      <c r="T15" t="n">
-        <v>237.1792535562986</v>
-      </c>
       <c r="U15" t="n">
-        <v>116.1694303132891</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="V15" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="W15" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="X15" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>314.8923099283422</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="C16" t="n">
-        <v>193.8824866853327</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="D16" t="n">
-        <v>193.8824866853327</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="E16" t="n">
-        <v>72.87266344232317</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="F16" t="n">
-        <v>72.87266344232317</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="G16" t="n">
-        <v>72.87266344232317</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="H16" t="n">
-        <v>72.87266344232317</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="I16" t="n">
-        <v>72.87266344232317</v>
+        <v>72.87266344232316</v>
       </c>
       <c r="J16" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K16" t="n">
-        <v>37.48771777689736</v>
+        <v>37.48771777689738</v>
       </c>
       <c r="L16" t="n">
         <v>128.7213323718421</v>
@@ -5464,22 +5466,22 @@
         <v>479.1989000423177</v>
       </c>
       <c r="T16" t="n">
-        <v>479.1989000423177</v>
+        <v>435.9021331713517</v>
       </c>
       <c r="U16" t="n">
-        <v>358.1890767993082</v>
+        <v>435.9021331713517</v>
       </c>
       <c r="V16" t="n">
-        <v>358.1890767993082</v>
+        <v>314.8923099283422</v>
       </c>
       <c r="W16" t="n">
         <v>314.8923099283422</v>
       </c>
       <c r="X16" t="n">
-        <v>314.8923099283422</v>
+        <v>193.8824866853327</v>
       </c>
       <c r="Y16" t="n">
-        <v>314.8923099283422</v>
+        <v>72.87266344232316</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>692.6870207852653</v>
+        <v>1003.640016281327</v>
       </c>
       <c r="C17" t="n">
-        <v>323.7245038448536</v>
+        <v>634.6774993409151</v>
       </c>
       <c r="D17" t="n">
-        <v>323.7245038448536</v>
+        <v>634.6774993409151</v>
       </c>
       <c r="E17" t="n">
-        <v>323.7245038448536</v>
+        <v>634.6774993409151</v>
       </c>
       <c r="F17" t="n">
-        <v>323.7245038448536</v>
+        <v>223.6915945513076</v>
       </c>
       <c r="G17" t="n">
-        <v>323.7245038448536</v>
+        <v>223.6915945513076</v>
       </c>
       <c r="H17" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I17" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J17" t="n">
-        <v>110.7374297254732</v>
+        <v>110.7374297254728</v>
       </c>
       <c r="K17" t="n">
-        <v>335.6727195036939</v>
+        <v>335.6727195036935</v>
       </c>
       <c r="L17" t="n">
-        <v>667.0014641547021</v>
+        <v>667.0014641547018</v>
       </c>
       <c r="M17" t="n">
         <v>1052.275078266372</v>
       </c>
       <c r="N17" t="n">
-        <v>1429.150824699719</v>
+        <v>1429.150824699718</v>
       </c>
       <c r="O17" t="n">
-        <v>1739.836267288119</v>
+        <v>1739.836267288118</v>
       </c>
       <c r="P17" t="n">
         <v>1967.324721668029</v>
       </c>
       <c r="Q17" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R17" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="S17" t="n">
-        <v>1872.090405452652</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="T17" t="n">
-        <v>1651.021930256329</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="U17" t="n">
-        <v>1397.215666389916</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="V17" t="n">
-        <v>1066.152779046345</v>
+        <v>1729.874429812521</v>
       </c>
       <c r="W17" t="n">
-        <v>1066.152779046345</v>
+        <v>1377.105774542407</v>
       </c>
       <c r="X17" t="n">
-        <v>692.6870207852653</v>
+        <v>1003.640016281327</v>
       </c>
       <c r="Y17" t="n">
-        <v>692.6870207852653</v>
+        <v>1003.640016281327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>789.1613388293038</v>
+        <v>731.9360785455957</v>
       </c>
       <c r="C18" t="n">
-        <v>614.7083095481768</v>
+        <v>557.4830492644687</v>
       </c>
       <c r="D18" t="n">
-        <v>465.7738998869255</v>
+        <v>557.4830492644687</v>
       </c>
       <c r="E18" t="n">
-        <v>368.3537810179997</v>
+        <v>398.2455942590133</v>
       </c>
       <c r="F18" t="n">
-        <v>221.8192230448847</v>
+        <v>251.7110362858982</v>
       </c>
       <c r="G18" t="n">
-        <v>221.8192230448847</v>
+        <v>113.5034470077535</v>
       </c>
       <c r="H18" t="n">
         <v>113.5034470077535</v>
       </c>
       <c r="I18" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J18" t="n">
         <v>88.93021823198805</v>
@@ -5604,16 +5606,16 @@
         <v>1088.681810503708</v>
       </c>
       <c r="N18" t="n">
-        <v>1566.579373870915</v>
+        <v>1409.599770096329</v>
       </c>
       <c r="O18" t="n">
         <v>1780.36699745888</v>
       </c>
       <c r="P18" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="Q18" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R18" t="n">
         <v>1992.254326248795</v>
@@ -5628,16 +5630,16 @@
         <v>1400.289082846068</v>
       </c>
       <c r="V18" t="n">
-        <v>1165.136974614326</v>
+        <v>1165.136974614325</v>
       </c>
       <c r="W18" t="n">
-        <v>1165.136974614326</v>
+        <v>910.8996178861237</v>
       </c>
       <c r="X18" t="n">
-        <v>1165.136974614326</v>
+        <v>731.9360785455957</v>
       </c>
       <c r="Y18" t="n">
-        <v>957.3766758493718</v>
+        <v>731.9360785455957</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="C19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="D19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="E19" t="n">
-        <v>153.2599798084182</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F19" t="n">
-        <v>153.2599798084182</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G19" t="n">
-        <v>104.5074317845987</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H19" t="n">
-        <v>104.5074317845987</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I19" t="n">
-        <v>104.5074317845987</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J19" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="K19" t="n">
         <v>69.12248611917285</v>
@@ -5704,19 +5706,19 @@
         <v>301.1730733908113</v>
       </c>
       <c r="U19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="V19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="W19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="X19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="Y19" t="n">
-        <v>301.1730733908113</v>
+        <v>41.21874634312183</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>792.6271992685245</v>
+        <v>795.9695158817779</v>
       </c>
       <c r="C20" t="n">
-        <v>792.6271992685245</v>
+        <v>427.0069989413661</v>
       </c>
       <c r="D20" t="n">
-        <v>792.6271992685245</v>
+        <v>427.0069989413661</v>
       </c>
       <c r="E20" t="n">
-        <v>792.6271992685245</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F20" t="n">
-        <v>792.6271992685245</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G20" t="n">
-        <v>374.1074098603982</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H20" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I20" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J20" t="n">
         <v>110.7374297254729</v>
       </c>
       <c r="K20" t="n">
-        <v>335.6727195036935</v>
+        <v>335.6727195036933</v>
       </c>
       <c r="L20" t="n">
-        <v>667.001464154702</v>
+        <v>667.0014641547016</v>
       </c>
       <c r="M20" t="n">
         <v>1052.275078266372</v>
@@ -5765,37 +5767,37 @@
         <v>1429.150824699719</v>
       </c>
       <c r="O20" t="n">
-        <v>1739.836267288119</v>
+        <v>1739.836267288118</v>
       </c>
       <c r="P20" t="n">
         <v>1967.324721668029</v>
       </c>
       <c r="Q20" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R20" t="n">
-        <v>2060.937317156092</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="S20" t="n">
-        <v>2060.937317156092</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="T20" t="n">
-        <v>2060.937317156092</v>
+        <v>1749.91549175757</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.937317156092</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="V20" t="n">
-        <v>1729.874429812521</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="W20" t="n">
-        <v>1729.874429812521</v>
+        <v>1143.340572621043</v>
       </c>
       <c r="X20" t="n">
-        <v>1356.408671551441</v>
+        <v>1143.340572621043</v>
       </c>
       <c r="Y20" t="n">
-        <v>966.2693395756296</v>
+        <v>795.9695158817779</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.5256456847064</v>
+        <v>513.116819907849</v>
       </c>
       <c r="C21" t="n">
-        <v>676.5256456847064</v>
+        <v>338.6637906267221</v>
       </c>
       <c r="D21" t="n">
-        <v>527.5912360234552</v>
+        <v>338.6637906267221</v>
       </c>
       <c r="E21" t="n">
-        <v>368.3537810179997</v>
+        <v>179.4263356212665</v>
       </c>
       <c r="F21" t="n">
-        <v>221.8192230448847</v>
+        <v>179.4263356212665</v>
       </c>
       <c r="G21" t="n">
-        <v>221.8192230448847</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H21" t="n">
-        <v>113.5034470077535</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I21" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J21" t="n">
-        <v>41.21874634312184</v>
+        <v>88.93021823198805</v>
       </c>
       <c r="K21" t="n">
-        <v>249.3860942874378</v>
+        <v>297.097566176304</v>
       </c>
       <c r="L21" t="n">
-        <v>346.5729883582548</v>
+        <v>346.5729883582543</v>
       </c>
       <c r="M21" t="n">
-        <v>796.846147641382</v>
+        <v>796.8461476413815</v>
       </c>
       <c r="N21" t="n">
         <v>1274.743711008589</v>
@@ -5850,7 +5852,7 @@
         <v>1926.081258068352</v>
       </c>
       <c r="Q21" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R21" t="n">
         <v>1992.254326248795</v>
@@ -5865,16 +5867,16 @@
         <v>1400.289082846068</v>
       </c>
       <c r="V21" t="n">
-        <v>1400.289082846068</v>
+        <v>1165.136974614325</v>
       </c>
       <c r="W21" t="n">
-        <v>1146.051726117867</v>
+        <v>1096.943955898404</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.501281469728</v>
+        <v>889.092455692871</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.7409827047745</v>
+        <v>681.3321569279171</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="C22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="D22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="E22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H22" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I22" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J22" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="K22" t="n">
         <v>69.12248611917285</v>
@@ -5932,28 +5934,28 @@
         <v>510.8336683845932</v>
       </c>
       <c r="R22" t="n">
-        <v>510.8336683845932</v>
+        <v>351.4733453789429</v>
       </c>
       <c r="S22" t="n">
-        <v>510.8336683845932</v>
+        <v>351.4733453789429</v>
       </c>
       <c r="T22" t="n">
-        <v>282.45988819296</v>
+        <v>351.4733453789429</v>
       </c>
       <c r="U22" t="n">
-        <v>282.45988819296</v>
+        <v>351.4733453789429</v>
       </c>
       <c r="V22" t="n">
-        <v>282.45988819296</v>
+        <v>330.6359163800824</v>
       </c>
       <c r="W22" t="n">
-        <v>282.45988819296</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="X22" t="n">
-        <v>282.45988819296</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.66730904942986</v>
+        <v>41.21874634312183</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>399.4844449498723</v>
+        <v>837.9929037309737</v>
       </c>
       <c r="C23" t="n">
-        <v>399.4844449498723</v>
+        <v>837.9929037309737</v>
       </c>
       <c r="D23" t="n">
-        <v>41.21874634312184</v>
+        <v>837.9929037309737</v>
       </c>
       <c r="E23" t="n">
-        <v>41.21874634312184</v>
+        <v>452.2046511327294</v>
       </c>
       <c r="F23" t="n">
         <v>41.21874634312184</v>
@@ -5990,10 +5992,10 @@
         <v>110.737429725473</v>
       </c>
       <c r="K23" t="n">
-        <v>335.6727195036938</v>
+        <v>335.6727195036935</v>
       </c>
       <c r="L23" t="n">
-        <v>667.001464154702</v>
+        <v>667.0014641547017</v>
       </c>
       <c r="M23" t="n">
         <v>1052.275078266372</v>
@@ -6017,22 +6019,22 @@
         <v>2060.937317156092</v>
       </c>
       <c r="T23" t="n">
-        <v>1902.458030521</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="U23" t="n">
-        <v>1902.458030521</v>
+        <v>1932.660881311436</v>
       </c>
       <c r="V23" t="n">
-        <v>1902.458030521</v>
+        <v>1601.597993967865</v>
       </c>
       <c r="W23" t="n">
-        <v>1549.689375250886</v>
+        <v>1601.597993967865</v>
       </c>
       <c r="X23" t="n">
-        <v>1176.223616989806</v>
+        <v>1228.132235706785</v>
       </c>
       <c r="Y23" t="n">
-        <v>786.0842850139941</v>
+        <v>837.9929037309737</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>842.6517062708632</v>
+        <v>327.0724818955694</v>
       </c>
       <c r="C24" t="n">
-        <v>668.1986769897362</v>
+        <v>327.0724818955694</v>
       </c>
       <c r="D24" t="n">
-        <v>519.2642673284849</v>
+        <v>325.9608935943816</v>
       </c>
       <c r="E24" t="n">
-        <v>360.0268123230294</v>
+        <v>325.9608935943816</v>
       </c>
       <c r="F24" t="n">
-        <v>360.0268123230294</v>
+        <v>179.4263356212665</v>
       </c>
       <c r="G24" t="n">
-        <v>221.8192230448847</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="H24" t="n">
-        <v>113.5034470077535</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="I24" t="n">
         <v>41.21874634312184</v>
@@ -6069,22 +6071,22 @@
         <v>88.93021823198805</v>
       </c>
       <c r="K24" t="n">
-        <v>297.097566176304</v>
+        <v>140.117962401718</v>
       </c>
       <c r="L24" t="n">
-        <v>638.4086512205806</v>
+        <v>481.4290474459946</v>
       </c>
       <c r="M24" t="n">
-        <v>1088.681810503708</v>
+        <v>931.7022067291218</v>
       </c>
       <c r="N24" t="n">
-        <v>1274.743711008589</v>
+        <v>1409.599770096329</v>
       </c>
       <c r="O24" t="n">
-        <v>1645.51093837114</v>
+        <v>1780.36699745888</v>
       </c>
       <c r="P24" t="n">
-        <v>1926.081258068352</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="Q24" t="n">
         <v>2060.937317156092</v>
@@ -6093,25 +6095,25 @@
         <v>1992.254326248795</v>
       </c>
       <c r="S24" t="n">
-        <v>1880.793784806461</v>
+        <v>1828.555863496308</v>
       </c>
       <c r="T24" t="n">
-        <v>1680.716198989619</v>
+        <v>1628.478277679466</v>
       </c>
       <c r="U24" t="n">
-        <v>1680.716198989619</v>
+        <v>1400.289082846068</v>
       </c>
       <c r="V24" t="n">
-        <v>1680.716198989619</v>
+        <v>1165.136974614326</v>
       </c>
       <c r="W24" t="n">
-        <v>1426.478842261418</v>
+        <v>910.8996178861241</v>
       </c>
       <c r="X24" t="n">
-        <v>1218.627342055885</v>
+        <v>703.0481176805913</v>
       </c>
       <c r="Y24" t="n">
-        <v>1010.867043290931</v>
+        <v>495.2878189156374</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="C25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="D25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="E25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="F25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="G25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="H25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="I25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="J25" t="n">
-        <v>1591.32239511462</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="K25" t="n">
-        <v>1619.226134890671</v>
+        <v>69.12248611917286</v>
       </c>
       <c r="L25" t="n">
-        <v>1710.459749485616</v>
+        <v>160.3561007141176</v>
       </c>
       <c r="M25" t="n">
-        <v>1817.041927273817</v>
+        <v>266.9382785023186</v>
       </c>
       <c r="N25" t="n">
-        <v>1926.524435518949</v>
+        <v>376.4207867474499</v>
       </c>
       <c r="O25" t="n">
-        <v>2011.632956626288</v>
+        <v>461.529307854789</v>
       </c>
       <c r="P25" t="n">
-        <v>2060.937317156092</v>
+        <v>510.8336683845932</v>
       </c>
       <c r="Q25" t="n">
-        <v>2060.937317156092</v>
+        <v>460.5333963964615</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.937317156092</v>
+        <v>460.5333963964615</v>
       </c>
       <c r="S25" t="n">
-        <v>2060.937317156092</v>
+        <v>460.5333963964615</v>
       </c>
       <c r="T25" t="n">
-        <v>2060.937317156092</v>
+        <v>232.1596162048283</v>
       </c>
       <c r="U25" t="n">
-        <v>2060.937317156092</v>
+        <v>232.1596162048283</v>
       </c>
       <c r="V25" t="n">
-        <v>2028.652658733974</v>
+        <v>232.1596162048283</v>
       </c>
       <c r="W25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="X25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="Y25" t="n">
-        <v>1739.235488697013</v>
+        <v>41.21874634312184</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>523.5473341033169</v>
+        <v>580.5905475785225</v>
       </c>
       <c r="C26" t="n">
-        <v>523.5473341033169</v>
+        <v>399.4844449498723</v>
       </c>
       <c r="D26" t="n">
-        <v>523.5473341033169</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="E26" t="n">
-        <v>523.5473341033169</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F26" t="n">
-        <v>112.5614293137093</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G26" t="n">
         <v>41.21874634312183</v>
@@ -6224,52 +6226,52 @@
         <v>41.21874634312183</v>
       </c>
       <c r="J26" t="n">
-        <v>110.7374297254728</v>
+        <v>110.7374297254729</v>
       </c>
       <c r="K26" t="n">
-        <v>335.6727195036934</v>
+        <v>335.6727195036935</v>
       </c>
       <c r="L26" t="n">
-        <v>667.0014641547017</v>
+        <v>667.0014641547018</v>
       </c>
       <c r="M26" t="n">
         <v>1052.275078266372</v>
       </c>
       <c r="N26" t="n">
-        <v>1429.150824699718</v>
+        <v>1429.150824699719</v>
       </c>
       <c r="O26" t="n">
-        <v>1739.836267288118</v>
+        <v>1739.836267288119</v>
       </c>
       <c r="P26" t="n">
         <v>1967.324721668029</v>
       </c>
       <c r="Q26" t="n">
-        <v>2060.937317156091</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="R26" t="n">
-        <v>1970.983966953893</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="S26" t="n">
-        <v>1970.983966953893</v>
+        <v>1872.090405452652</v>
       </c>
       <c r="T26" t="n">
-        <v>1970.983966953893</v>
+        <v>1651.021930256329</v>
       </c>
       <c r="U26" t="n">
-        <v>1970.983966953893</v>
+        <v>1651.021930256329</v>
       </c>
       <c r="V26" t="n">
-        <v>1639.921079610323</v>
+        <v>1319.959042912758</v>
       </c>
       <c r="W26" t="n">
-        <v>1287.152424340208</v>
+        <v>967.1903876426443</v>
       </c>
       <c r="X26" t="n">
-        <v>913.6866660791286</v>
+        <v>967.1903876426443</v>
       </c>
       <c r="Y26" t="n">
-        <v>523.5473341033169</v>
+        <v>967.1903876426443</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>742.6628989287022</v>
+        <v>608.7296989126397</v>
       </c>
       <c r="C27" t="n">
-        <v>568.2098696475753</v>
+        <v>434.2766696315127</v>
       </c>
       <c r="D27" t="n">
-        <v>419.2754599863241</v>
+        <v>434.2766696315127</v>
       </c>
       <c r="E27" t="n">
-        <v>260.0380049808685</v>
+        <v>434.2766696315127</v>
       </c>
       <c r="F27" t="n">
-        <v>113.5034470077535</v>
+        <v>287.7421116583977</v>
       </c>
       <c r="G27" t="n">
-        <v>113.5034470077535</v>
+        <v>149.534522380253</v>
       </c>
       <c r="H27" t="n">
-        <v>113.5034470077535</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I27" t="n">
         <v>41.21874634312183</v>
       </c>
       <c r="J27" t="n">
-        <v>88.93021823198804</v>
+        <v>88.93021823198805</v>
       </c>
       <c r="K27" t="n">
-        <v>88.93021823198804</v>
+        <v>297.097566176304</v>
       </c>
       <c r="L27" t="n">
-        <v>346.5729883582543</v>
+        <v>638.4086512205806</v>
       </c>
       <c r="M27" t="n">
         <v>796.8461476413815</v>
@@ -6330,25 +6332,25 @@
         <v>1992.254326248795</v>
       </c>
       <c r="S27" t="n">
-        <v>1868.07944330384</v>
+        <v>1828.555863496308</v>
       </c>
       <c r="T27" t="n">
-        <v>1668.001857486998</v>
+        <v>1628.478277679466</v>
       </c>
       <c r="U27" t="n">
-        <v>1439.8126626536</v>
+        <v>1513.730962843071</v>
       </c>
       <c r="V27" t="n">
-        <v>1204.660554421858</v>
+        <v>1278.578854611328</v>
       </c>
       <c r="W27" t="n">
-        <v>950.4231976936562</v>
+        <v>1024.341497883127</v>
       </c>
       <c r="X27" t="n">
-        <v>950.4231976936562</v>
+        <v>816.4899976775937</v>
       </c>
       <c r="Y27" t="n">
-        <v>742.6628989287022</v>
+        <v>608.7296989126397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>232.5438454984442</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="C28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="D28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="E28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H28" t="n">
-        <v>185.0476172054464</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I28" t="n">
         <v>41.21874634312183</v>
@@ -6403,31 +6405,31 @@
         <v>510.8336683845932</v>
       </c>
       <c r="Q28" t="n">
-        <v>460.5333963964615</v>
+        <v>510.8336683845932</v>
       </c>
       <c r="R28" t="n">
-        <v>460.5333963964615</v>
+        <v>351.4733453789429</v>
       </c>
       <c r="S28" t="n">
-        <v>460.5333963964615</v>
+        <v>132.8386636586579</v>
       </c>
       <c r="T28" t="n">
-        <v>460.5333963964615</v>
+        <v>132.8386636586579</v>
       </c>
       <c r="U28" t="n">
-        <v>460.5333963964615</v>
+        <v>132.8386636586579</v>
       </c>
       <c r="V28" t="n">
-        <v>460.5333963964615</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="W28" t="n">
-        <v>460.5333963964615</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="X28" t="n">
-        <v>232.5438454984442</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="Y28" t="n">
-        <v>232.5438454984442</v>
+        <v>41.21874634312183</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.3322269192</v>
+        <v>1109.509387827035</v>
       </c>
       <c r="C29" t="n">
-        <v>1297.3322269192</v>
+        <v>740.5468708866235</v>
       </c>
       <c r="D29" t="n">
-        <v>1297.3322269192</v>
+        <v>740.5468708866235</v>
       </c>
       <c r="E29" t="n">
-        <v>911.5439743209556</v>
+        <v>354.7586182883793</v>
       </c>
       <c r="F29" t="n">
-        <v>634.6389810677949</v>
+        <v>354.7586182883793</v>
       </c>
       <c r="G29" t="n">
-        <v>216.1191916596686</v>
+        <v>354.7586182883793</v>
       </c>
       <c r="H29" t="n">
         <v>216.1191916596686</v>
@@ -6464,10 +6466,10 @@
         <v>110.7374297254728</v>
       </c>
       <c r="K29" t="n">
-        <v>335.6727195036934</v>
+        <v>335.6727195036935</v>
       </c>
       <c r="L29" t="n">
-        <v>667.0014641547017</v>
+        <v>667.0014641547018</v>
       </c>
       <c r="M29" t="n">
         <v>1052.275078266372</v>
@@ -6485,28 +6487,28 @@
         <v>2060.937317156091</v>
       </c>
       <c r="R29" t="n">
-        <v>2060.937317156091</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="S29" t="n">
-        <v>2060.937317156091</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="T29" t="n">
-        <v>2060.937317156091</v>
+        <v>1749.91549175757</v>
       </c>
       <c r="U29" t="n">
-        <v>2060.937317156091</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="V29" t="n">
-        <v>2060.937317156091</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="W29" t="n">
-        <v>2060.937317156091</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="X29" t="n">
-        <v>1687.471558895012</v>
+        <v>1496.109227891157</v>
       </c>
       <c r="Y29" t="n">
-        <v>1297.3322269192</v>
+        <v>1496.109227891157</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>742.4485342982196</v>
+        <v>327.0724818955689</v>
       </c>
       <c r="C30" t="n">
-        <v>742.4485342982196</v>
+        <v>152.6194526144419</v>
       </c>
       <c r="D30" t="n">
-        <v>593.5141246369683</v>
+        <v>152.6194526144419</v>
       </c>
       <c r="E30" t="n">
-        <v>434.2766696315127</v>
+        <v>152.6194526144419</v>
       </c>
       <c r="F30" t="n">
-        <v>287.7421116583977</v>
+        <v>152.6194526144419</v>
       </c>
       <c r="G30" t="n">
-        <v>149.534522380253</v>
+        <v>113.5034470077535</v>
       </c>
       <c r="H30" t="n">
-        <v>41.21874634312183</v>
+        <v>113.5034470077535</v>
       </c>
       <c r="I30" t="n">
         <v>41.21874634312183</v>
       </c>
       <c r="J30" t="n">
-        <v>88.93021823198804</v>
+        <v>88.93021823198805</v>
       </c>
       <c r="K30" t="n">
-        <v>140.1179624017176</v>
+        <v>297.097566176304</v>
       </c>
       <c r="L30" t="n">
-        <v>481.4290474459942</v>
+        <v>638.4086512205806</v>
       </c>
       <c r="M30" t="n">
-        <v>931.7022067291214</v>
+        <v>1088.681810503708</v>
       </c>
       <c r="N30" t="n">
-        <v>1409.599770096329</v>
+        <v>1274.743711008589</v>
       </c>
       <c r="O30" t="n">
-        <v>1780.36699745888</v>
+        <v>1645.51093837114</v>
       </c>
       <c r="P30" t="n">
-        <v>2060.937317156091</v>
+        <v>1926.081258068352</v>
       </c>
       <c r="Q30" t="n">
         <v>2060.937317156091</v>
@@ -6573,19 +6575,19 @@
         <v>1628.478277679466</v>
       </c>
       <c r="U30" t="n">
-        <v>1628.478277679466</v>
+        <v>1400.289082846068</v>
       </c>
       <c r="V30" t="n">
-        <v>1393.326169447723</v>
+        <v>1165.136974614325</v>
       </c>
       <c r="W30" t="n">
-        <v>1139.088812719521</v>
+        <v>910.8996178861237</v>
       </c>
       <c r="X30" t="n">
-        <v>931.2373125139886</v>
+        <v>703.0481176805908</v>
       </c>
       <c r="Y30" t="n">
-        <v>910.6638713182876</v>
+        <v>495.2878189156369</v>
       </c>
     </row>
     <row r="31">
@@ -6640,22 +6642,22 @@
         <v>510.8336683845932</v>
       </c>
       <c r="Q31" t="n">
-        <v>510.8336683845932</v>
+        <v>488.22720825504</v>
       </c>
       <c r="R31" t="n">
-        <v>510.8336683845932</v>
+        <v>488.22720825504</v>
       </c>
       <c r="S31" t="n">
-        <v>510.8336683845932</v>
+        <v>269.5925265347551</v>
       </c>
       <c r="T31" t="n">
-        <v>510.8336683845932</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="U31" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="V31" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="W31" t="n">
         <v>41.21874634312183</v>
@@ -6674,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1431.413138455647</v>
+        <v>534.6481847493235</v>
       </c>
       <c r="C32" t="n">
-        <v>1431.413138455647</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="D32" t="n">
-        <v>1431.413138455647</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="E32" t="n">
-        <v>1045.624885857402</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="F32" t="n">
-        <v>634.6389810677949</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="G32" t="n">
-        <v>216.1191916596686</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="H32" t="n">
-        <v>216.1191916596686</v>
+        <v>165.6856678089118</v>
       </c>
       <c r="I32" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="J32" t="n">
-        <v>110.7374297254729</v>
+        <v>110.7374297254728</v>
       </c>
       <c r="K32" t="n">
-        <v>335.6727195036935</v>
+        <v>335.6727195036938</v>
       </c>
       <c r="L32" t="n">
-        <v>667.0014641547018</v>
+        <v>667.001464154702</v>
       </c>
       <c r="M32" t="n">
         <v>1052.275078266372</v>
@@ -6713,37 +6715,37 @@
         <v>1429.150824699719</v>
       </c>
       <c r="O32" t="n">
-        <v>1739.836267288118</v>
+        <v>1739.836267288119</v>
       </c>
       <c r="P32" t="n">
         <v>1967.324721668029</v>
       </c>
       <c r="Q32" t="n">
-        <v>2060.937317156091</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="R32" t="n">
-        <v>2060.937317156091</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="S32" t="n">
-        <v>2060.937317156091</v>
+        <v>1872.090405452652</v>
       </c>
       <c r="T32" t="n">
-        <v>2060.937317156091</v>
+        <v>1651.021930256329</v>
       </c>
       <c r="U32" t="n">
-        <v>2060.937317156091</v>
+        <v>1651.021930256329</v>
       </c>
       <c r="V32" t="n">
-        <v>2060.937317156091</v>
+        <v>1651.021930256329</v>
       </c>
       <c r="W32" t="n">
-        <v>2060.937317156091</v>
+        <v>1298.253274986215</v>
       </c>
       <c r="X32" t="n">
-        <v>1821.552470431458</v>
+        <v>924.7875167251352</v>
       </c>
       <c r="Y32" t="n">
-        <v>1431.413138455647</v>
+        <v>534.6481847493235</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>762.3021759441535</v>
+        <v>703.1393191211703</v>
       </c>
       <c r="C33" t="n">
-        <v>587.8491466630265</v>
+        <v>528.6862898400433</v>
       </c>
       <c r="D33" t="n">
-        <v>506.5613702961444</v>
+        <v>379.751880178792</v>
       </c>
       <c r="E33" t="n">
-        <v>506.5613702961444</v>
+        <v>260.0380049808685</v>
       </c>
       <c r="F33" t="n">
-        <v>360.0268123230294</v>
+        <v>113.5034470077535</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8192230448847</v>
+        <v>113.5034470077535</v>
       </c>
       <c r="H33" t="n">
         <v>113.5034470077535</v>
       </c>
       <c r="I33" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="J33" t="n">
-        <v>88.93021823198804</v>
+        <v>88.93021823198805</v>
       </c>
       <c r="K33" t="n">
         <v>297.097566176304</v>
@@ -6789,16 +6791,16 @@
         <v>1088.681810503708</v>
       </c>
       <c r="N33" t="n">
-        <v>1409.599770096329</v>
+        <v>1274.743711008589</v>
       </c>
       <c r="O33" t="n">
-        <v>1780.36699745888</v>
+        <v>1645.51093837114</v>
       </c>
       <c r="P33" t="n">
-        <v>2060.937317156091</v>
+        <v>1926.081258068352</v>
       </c>
       <c r="Q33" t="n">
-        <v>2060.937317156091</v>
+        <v>2060.937317156092</v>
       </c>
       <c r="R33" t="n">
         <v>1992.254326248795</v>
@@ -6807,22 +6809,22 @@
         <v>1828.555863496308</v>
       </c>
       <c r="T33" t="n">
-        <v>1828.555863496308</v>
+        <v>1628.478277679466</v>
       </c>
       <c r="U33" t="n">
-        <v>1600.36666866291</v>
+        <v>1400.289082846068</v>
       </c>
       <c r="V33" t="n">
-        <v>1600.36666866291</v>
+        <v>1165.136974614326</v>
       </c>
       <c r="W33" t="n">
-        <v>1346.129311934708</v>
+        <v>910.8996178861241</v>
       </c>
       <c r="X33" t="n">
-        <v>1138.277811729175</v>
+        <v>910.8996178861241</v>
       </c>
       <c r="Y33" t="n">
-        <v>930.5175129642216</v>
+        <v>703.1393191211703</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="C34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="D34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="E34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="F34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="G34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="H34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="I34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="J34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="K34" t="n">
-        <v>69.12248611917285</v>
+        <v>69.12248611917286</v>
       </c>
       <c r="L34" t="n">
         <v>160.3561007141176</v>
@@ -6877,31 +6879,31 @@
         <v>510.8336683845932</v>
       </c>
       <c r="Q34" t="n">
-        <v>510.8336683845932</v>
+        <v>460.5333963964615</v>
       </c>
       <c r="R34" t="n">
-        <v>510.8336683845932</v>
+        <v>301.1730733908113</v>
       </c>
       <c r="S34" t="n">
-        <v>510.8336683845932</v>
+        <v>269.5925265347551</v>
       </c>
       <c r="T34" t="n">
-        <v>510.8336683845932</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="U34" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="V34" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="W34" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="X34" t="n">
-        <v>221.6464547260517</v>
+        <v>41.21874634312184</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.21874634312183</v>
+        <v>41.21874634312184</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1300.87171883089</v>
+        <v>1045.38684615292</v>
       </c>
       <c r="C35" t="n">
-        <v>931.9092018904787</v>
+        <v>759.8956624586424</v>
       </c>
       <c r="D35" t="n">
-        <v>573.6435032837283</v>
+        <v>759.8956624586424</v>
       </c>
       <c r="E35" t="n">
-        <v>573.6435032837283</v>
+        <v>374.1074098603982</v>
       </c>
       <c r="F35" t="n">
-        <v>162.6575984941207</v>
+        <v>374.1074098603982</v>
       </c>
       <c r="G35" t="n">
-        <v>41.21874634312184</v>
+        <v>374.1074098603982</v>
       </c>
       <c r="H35" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I35" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J35" t="n">
-        <v>110.7374297254729</v>
+        <v>110.7374297254728</v>
       </c>
       <c r="K35" t="n">
-        <v>335.6727195036939</v>
+        <v>335.6727195036935</v>
       </c>
       <c r="L35" t="n">
-        <v>667.0014641547021</v>
+        <v>667.0014641547018</v>
       </c>
       <c r="M35" t="n">
         <v>1052.275078266372</v>
       </c>
       <c r="N35" t="n">
-        <v>1429.150824699719</v>
+        <v>1429.150824699718</v>
       </c>
       <c r="O35" t="n">
-        <v>1739.836267288119</v>
+        <v>1739.836267288118</v>
       </c>
       <c r="P35" t="n">
         <v>1967.324721668029</v>
       </c>
       <c r="Q35" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R35" t="n">
-        <v>2060.937317156092</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="S35" t="n">
-        <v>2060.937317156092</v>
+        <v>1970.983966953893</v>
       </c>
       <c r="T35" t="n">
-        <v>2060.937317156092</v>
+        <v>1749.91549175757</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.937317156092</v>
+        <v>1749.91549175757</v>
       </c>
       <c r="V35" t="n">
-        <v>2060.937317156092</v>
+        <v>1418.852604414</v>
       </c>
       <c r="W35" t="n">
-        <v>2060.937317156092</v>
+        <v>1418.852604414</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.471558895012</v>
+        <v>1045.38684615292</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.471558895012</v>
+        <v>1045.38684615292</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>681.0143995772714</v>
+        <v>545.206661987263</v>
       </c>
       <c r="C36" t="n">
-        <v>506.5613702961444</v>
+        <v>370.753632706136</v>
       </c>
       <c r="D36" t="n">
-        <v>506.5613702961444</v>
+        <v>221.8192230448847</v>
       </c>
       <c r="E36" t="n">
-        <v>506.5613702961444</v>
+        <v>221.8192230448847</v>
       </c>
       <c r="F36" t="n">
-        <v>360.0268123230294</v>
+        <v>221.8192230448847</v>
       </c>
       <c r="G36" t="n">
         <v>221.8192230448847</v>
@@ -7011,7 +7013,7 @@
         <v>113.5034470077535</v>
       </c>
       <c r="I36" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J36" t="n">
         <v>88.93021823198805</v>
@@ -7023,19 +7025,19 @@
         <v>638.4086512205806</v>
       </c>
       <c r="M36" t="n">
-        <v>1088.681810503708</v>
+        <v>1077.416467338593</v>
       </c>
       <c r="N36" t="n">
-        <v>1566.579373870915</v>
+        <v>1555.314030705801</v>
       </c>
       <c r="O36" t="n">
-        <v>1645.51093837114</v>
+        <v>1926.081258068352</v>
       </c>
       <c r="P36" t="n">
         <v>1926.081258068352</v>
       </c>
       <c r="Q36" t="n">
-        <v>2060.937317156092</v>
+        <v>2060.937317156091</v>
       </c>
       <c r="R36" t="n">
         <v>1992.254326248795</v>
@@ -7044,22 +7046,22 @@
         <v>1828.555863496308</v>
       </c>
       <c r="T36" t="n">
-        <v>1828.555863496308</v>
+        <v>1628.478277679466</v>
       </c>
       <c r="U36" t="n">
-        <v>1600.36666866291</v>
+        <v>1400.289082846068</v>
       </c>
       <c r="V36" t="n">
-        <v>1365.214560431168</v>
+        <v>1165.136974614325</v>
       </c>
       <c r="W36" t="n">
-        <v>1110.977203702966</v>
+        <v>910.8996178861237</v>
       </c>
       <c r="X36" t="n">
-        <v>903.1257034974333</v>
+        <v>910.8996178861237</v>
       </c>
       <c r="Y36" t="n">
-        <v>695.3654047324794</v>
+        <v>713.4219990073311</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>292.1989866643082</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="C37" t="n">
-        <v>292.1989866643082</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="D37" t="n">
-        <v>188.1086938410322</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="E37" t="n">
-        <v>188.1086938410322</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="F37" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="G37" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="H37" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="I37" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="J37" t="n">
-        <v>41.21874634312184</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="K37" t="n">
         <v>69.12248611917285</v>
@@ -7120,25 +7122,25 @@
         <v>510.8336683845932</v>
       </c>
       <c r="S37" t="n">
-        <v>292.1989866643082</v>
+        <v>510.8336683845932</v>
       </c>
       <c r="T37" t="n">
-        <v>292.1989866643082</v>
+        <v>510.8336683845932</v>
       </c>
       <c r="U37" t="n">
-        <v>292.1989866643082</v>
+        <v>510.8336683845932</v>
       </c>
       <c r="V37" t="n">
-        <v>292.1989866643082</v>
+        <v>256.1491801787063</v>
       </c>
       <c r="W37" t="n">
-        <v>292.1989866643082</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="X37" t="n">
-        <v>292.1989866643082</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="Y37" t="n">
-        <v>292.1989866643082</v>
+        <v>41.21874634312183</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1363.315651693449</v>
+        <v>1178.415451866769</v>
       </c>
       <c r="C38" t="n">
-        <v>1363.315651693449</v>
+        <v>1178.415451866769</v>
       </c>
       <c r="D38" t="n">
-        <v>1256.5126931391</v>
+        <v>1178.415451866769</v>
       </c>
       <c r="E38" t="n">
-        <v>870.7244405408557</v>
+        <v>792.6271992685245</v>
       </c>
       <c r="F38" t="n">
-        <v>459.7385357512481</v>
+        <v>792.6271992685245</v>
       </c>
       <c r="G38" t="n">
-        <v>41.21874634312183</v>
+        <v>374.1074098603982</v>
       </c>
       <c r="H38" t="n">
         <v>41.21874634312183</v>
@@ -7202,22 +7204,22 @@
         <v>1970.983966953893</v>
       </c>
       <c r="T38" t="n">
-        <v>1749.91549175757</v>
+        <v>1938.48105019197</v>
       </c>
       <c r="U38" t="n">
-        <v>1749.91549175757</v>
+        <v>1938.48105019197</v>
       </c>
       <c r="V38" t="n">
-        <v>1749.91549175757</v>
+        <v>1938.48105019197</v>
       </c>
       <c r="W38" t="n">
-        <v>1749.91549175757</v>
+        <v>1938.48105019197</v>
       </c>
       <c r="X38" t="n">
-        <v>1749.91549175757</v>
+        <v>1565.01529193089</v>
       </c>
       <c r="Y38" t="n">
-        <v>1749.91549175757</v>
+        <v>1565.01529193089</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>527.1500677124109</v>
+        <v>670.3781982640706</v>
       </c>
       <c r="C39" t="n">
         <v>495.9251689829437</v>
@@ -7257,7 +7259,7 @@
         <v>41.21874634312183</v>
       </c>
       <c r="L39" t="n">
-        <v>346.5729883582543</v>
+        <v>382.5298313873984</v>
       </c>
       <c r="M39" t="n">
         <v>796.8461476413815</v>
@@ -7281,22 +7283,22 @@
         <v>1828.555863496308</v>
       </c>
       <c r="T39" t="n">
-        <v>1828.555863496308</v>
+        <v>1628.478277679466</v>
       </c>
       <c r="U39" t="n">
-        <v>1600.36666866291</v>
+        <v>1400.289082846068</v>
       </c>
       <c r="V39" t="n">
-        <v>1365.214560431167</v>
+        <v>1340.227353962759</v>
       </c>
       <c r="W39" t="n">
-        <v>1110.977203702966</v>
+        <v>1085.989997234557</v>
       </c>
       <c r="X39" t="n">
-        <v>903.1257034974328</v>
+        <v>878.1384970290246</v>
       </c>
       <c r="Y39" t="n">
-        <v>695.365404732479</v>
+        <v>670.3781982640706</v>
       </c>
     </row>
     <row r="40">
@@ -7351,22 +7353,22 @@
         <v>510.8336683845932</v>
       </c>
       <c r="Q40" t="n">
-        <v>510.8336683845932</v>
+        <v>460.5333963964615</v>
       </c>
       <c r="R40" t="n">
-        <v>510.8336683845932</v>
+        <v>301.1730733908113</v>
       </c>
       <c r="S40" t="n">
-        <v>510.8336683845932</v>
+        <v>269.5925265347551</v>
       </c>
       <c r="T40" t="n">
-        <v>510.8336683845932</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="U40" t="n">
-        <v>510.8336683845932</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="V40" t="n">
-        <v>330.6359163800824</v>
+        <v>41.21874634312183</v>
       </c>
       <c r="W40" t="n">
         <v>41.21874634312183</v>
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="C41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="D41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="E41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="F41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="G41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="H41" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="I41" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J41" t="n">
-        <v>79.10266138319739</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K41" t="n">
-        <v>79.10266138319739</v>
+        <v>128.18570576132</v>
       </c>
       <c r="L41" t="n">
-        <v>79.10266138319739</v>
+        <v>246.7874335217936</v>
       </c>
       <c r="M41" t="n">
-        <v>79.10266138319739</v>
+        <v>246.7874335217936</v>
       </c>
       <c r="N41" t="n">
-        <v>197.704389143671</v>
+        <v>246.7874335217936</v>
       </c>
       <c r="O41" t="n">
-        <v>266.9845767937812</v>
+        <v>365.3891612822673</v>
       </c>
       <c r="P41" t="n">
-        <v>385.5863045542549</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="Q41" t="n">
         <v>479.1989000423177</v>
@@ -7445,16 +7447,16 @@
         <v>479.1989000423177</v>
       </c>
       <c r="V41" t="n">
-        <v>372.6134477298749</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="W41" t="n">
-        <v>251.6036244868654</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="X41" t="n">
-        <v>130.5938012438559</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.583978000846354</v>
+        <v>237.1792535562987</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="C42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="D42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="E42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="F42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="G42" t="n">
-        <v>81.86867866547804</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="H42" t="n">
-        <v>81.86867866547804</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="I42" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J42" t="n">
-        <v>57.29544988971256</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K42" t="n">
-        <v>57.29544988971256</v>
+        <v>128.18570576132</v>
       </c>
       <c r="L42" t="n">
-        <v>175.8971776501862</v>
+        <v>128.18570576132</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8971776501862</v>
+        <v>128.18570576132</v>
       </c>
       <c r="N42" t="n">
-        <v>294.4989054106598</v>
+        <v>246.7874335217936</v>
       </c>
       <c r="O42" t="n">
-        <v>413.1006331711334</v>
+        <v>365.3891612822673</v>
       </c>
       <c r="P42" t="n">
         <v>479.1989000423177</v>
@@ -7515,25 +7517,25 @@
         <v>479.1989000423177</v>
       </c>
       <c r="S42" t="n">
-        <v>479.1989000423177</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="T42" t="n">
-        <v>358.1890767993082</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1792535562986</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="V42" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="W42" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="X42" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.1694303132891</v>
+        <v>116.1694303132892</v>
       </c>
     </row>
     <row r="43">
@@ -7546,31 +7548,31 @@
         <v>130.5938012438559</v>
       </c>
       <c r="C43" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="D43" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="E43" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="F43" t="n">
-        <v>9.583978000846354</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="G43" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="H43" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="I43" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="J43" t="n">
-        <v>9.583978000846354</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="K43" t="n">
-        <v>37.48771777689736</v>
+        <v>37.48771777689738</v>
       </c>
       <c r="L43" t="n">
         <v>128.7213323718421</v>
@@ -7600,19 +7602,19 @@
         <v>358.1890767993082</v>
       </c>
       <c r="U43" t="n">
-        <v>358.1890767993082</v>
+        <v>237.1792535562986</v>
       </c>
       <c r="V43" t="n">
-        <v>358.1890767993082</v>
+        <v>237.1792535562986</v>
       </c>
       <c r="W43" t="n">
-        <v>358.1890767993082</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="X43" t="n">
-        <v>358.1890767993082</v>
+        <v>130.5938012438559</v>
       </c>
       <c r="Y43" t="n">
-        <v>237.1792535562986</v>
+        <v>130.5938012438559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.2160801110911</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="C44" t="n">
-        <v>26.2160801110911</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="D44" t="n">
-        <v>26.2160801110911</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="E44" t="n">
-        <v>26.2160801110911</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="F44" t="n">
-        <v>26.2160801110911</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="G44" t="n">
-        <v>26.2160801110911</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="H44" t="n">
-        <v>26.2160801110911</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="I44" t="n">
         <v>9.583978000846356</v>
       </c>
       <c r="J44" t="n">
-        <v>9.583978000846356</v>
+        <v>79.1026613831974</v>
       </c>
       <c r="K44" t="n">
-        <v>128.18570576132</v>
+        <v>79.1026613831974</v>
       </c>
       <c r="L44" t="n">
-        <v>246.7874335217936</v>
+        <v>197.7043891436711</v>
       </c>
       <c r="M44" t="n">
-        <v>360.5971722818441</v>
+        <v>316.3061169041447</v>
       </c>
       <c r="N44" t="n">
-        <v>360.5971722818441</v>
+        <v>316.3061169041447</v>
       </c>
       <c r="O44" t="n">
-        <v>479.1989000423177</v>
+        <v>316.3061169041447</v>
       </c>
       <c r="P44" t="n">
-        <v>479.1989000423177</v>
+        <v>385.5863045542549</v>
       </c>
       <c r="Q44" t="n">
         <v>479.1989000423177</v>
       </c>
       <c r="R44" t="n">
-        <v>389.2455498401197</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="S44" t="n">
-        <v>389.2455498401197</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="T44" t="n">
-        <v>268.2357265971102</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="U44" t="n">
-        <v>147.2259033541006</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="V44" t="n">
-        <v>147.2259033541006</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="W44" t="n">
-        <v>147.2259033541006</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="X44" t="n">
-        <v>147.2259033541006</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.2160801110911</v>
+        <v>237.1792535562987</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.5938012438559</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="C45" t="n">
-        <v>130.5938012438559</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="D45" t="n">
-        <v>130.5938012438559</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5938012438559</v>
+        <v>116.1694303132892</v>
       </c>
       <c r="F45" t="n">
-        <v>130.5938012438559</v>
+        <v>9.583978000846356</v>
       </c>
       <c r="G45" t="n">
         <v>9.583978000846356</v>
@@ -7728,22 +7730,22 @@
         <v>9.583978000846356</v>
       </c>
       <c r="K45" t="n">
-        <v>9.583978000846356</v>
+        <v>123.3937167608968</v>
       </c>
       <c r="L45" t="n">
-        <v>9.583978000846356</v>
+        <v>123.3937167608968</v>
       </c>
       <c r="M45" t="n">
-        <v>9.583978000846356</v>
+        <v>123.3937167608968</v>
       </c>
       <c r="N45" t="n">
-        <v>123.3937167608968</v>
+        <v>241.9954445213705</v>
       </c>
       <c r="O45" t="n">
-        <v>241.9954445213705</v>
+        <v>360.5971722818441</v>
       </c>
       <c r="P45" t="n">
-        <v>360.5971722818441</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="Q45" t="n">
         <v>479.1989000423177</v>
@@ -7767,10 +7769,10 @@
         <v>479.1989000423177</v>
       </c>
       <c r="X45" t="n">
+        <v>479.1989000423177</v>
+      </c>
+      <c r="Y45" t="n">
         <v>358.1890767993082</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>237.1792535562987</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>372.613447729875</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="C46" t="n">
-        <v>372.613447729875</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="D46" t="n">
-        <v>372.613447729875</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="E46" t="n">
-        <v>251.6036244868654</v>
+        <v>358.1890767993082</v>
       </c>
       <c r="F46" t="n">
-        <v>251.6036244868654</v>
+        <v>237.1792535562987</v>
       </c>
       <c r="G46" t="n">
         <v>130.5938012438559</v>
@@ -7807,13 +7809,13 @@
         <v>9.583978000846356</v>
       </c>
       <c r="K46" t="n">
-        <v>37.4877177768974</v>
+        <v>37.48771777689734</v>
       </c>
       <c r="L46" t="n">
-        <v>128.7213323718422</v>
+        <v>128.7213323718421</v>
       </c>
       <c r="M46" t="n">
-        <v>235.3035101600431</v>
+        <v>235.303510160043</v>
       </c>
       <c r="N46" t="n">
         <v>344.7860184051744</v>
@@ -7846,10 +7848,10 @@
         <v>479.1989000423177</v>
       </c>
       <c r="X46" t="n">
-        <v>372.613447729875</v>
+        <v>479.1989000423177</v>
       </c>
       <c r="Y46" t="n">
-        <v>372.613447729875</v>
+        <v>479.1989000423177</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.8757228666687</v>
+        <v>119.2768776868582</v>
       </c>
       <c r="K11" t="n">
-        <v>96.93804915882066</v>
+        <v>96.93804915882065</v>
       </c>
       <c r="L11" t="n">
-        <v>202.7854399135468</v>
+        <v>82.98571490296737</v>
       </c>
       <c r="M11" t="n">
-        <v>180.147991723947</v>
+        <v>180.1479917239469</v>
       </c>
       <c r="N11" t="n">
         <v>176.464077267668</v>
       </c>
       <c r="O11" t="n">
-        <v>181.9358339613827</v>
+        <v>66.97650188052364</v>
       </c>
       <c r="P11" t="n">
-        <v>92.01239061601737</v>
+        <v>211.8121156265968</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.7568133992351</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>117.5786775780118</v>
+        <v>173.9949135945561</v>
       </c>
       <c r="L12" t="n">
         <v>145.8813985521431</v>
       </c>
       <c r="M12" t="n">
-        <v>130.6834157473195</v>
+        <v>74.2671797307753</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>19.34996840546593</v>
+        <v>139.1496934160454</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05840530942035</v>
+        <v>35.05840530942034</v>
       </c>
       <c r="Q12" t="n">
-        <v>193.6587712436611</v>
+        <v>73.8590462330816</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>98.87572286666868</v>
       </c>
       <c r="K14" t="n">
         <v>216.7377741694001</v>
       </c>
       <c r="L14" t="n">
-        <v>82.98571490296737</v>
+        <v>202.7854399135468</v>
       </c>
       <c r="M14" t="n">
-        <v>60.34826671336754</v>
+        <v>180.1479917239469</v>
       </c>
       <c r="N14" t="n">
-        <v>126.6443397824524</v>
+        <v>56.66435225708852</v>
       </c>
       <c r="O14" t="n">
-        <v>66.97650188052367</v>
+        <v>181.9358339613827</v>
       </c>
       <c r="P14" t="n">
-        <v>211.8121156265968</v>
+        <v>92.01239061601737</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>117.7568133992351</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>77.89762939205912</v>
       </c>
       <c r="K15" t="n">
-        <v>54.19518858397663</v>
+        <v>54.19518858397662</v>
       </c>
       <c r="L15" t="n">
-        <v>26.08167354156365</v>
+        <v>141.0410056224227</v>
       </c>
       <c r="M15" t="n">
-        <v>77.64961686924944</v>
+        <v>10.88369073674008</v>
       </c>
       <c r="N15" t="n">
         <v>116.4172878721053</v>
       </c>
       <c r="O15" t="n">
-        <v>139.1496934160454</v>
+        <v>19.34996840546592</v>
       </c>
       <c r="P15" t="n">
         <v>154.8581303199998</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.85904623308161</v>
+        <v>193.658771243661</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720742</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9252,16 +9254,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>320.7771180055875</v>
       </c>
       <c r="O18" t="n">
-        <v>235.297062938764</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.85904623308161</v>
+        <v>73.8590462330816</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711645</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>77.89762939205913</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>124.2502534110758</v>
+        <v>76.05684746272556</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9717,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>105.8999806746129</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>184.5588765028204</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>73.8590462330816</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>54.19518858397663</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>286.3268958913276</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>170.9215659092663</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>105.8999806746126</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>184.5588765028199</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.85904623308161</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>320.7771180055875</v>
+        <v>184.5588765028204</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.85904623308161</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711651</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>454.3259292397831</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>99.07882143599649</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>35.05840530942034</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10832,13 +10834,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119839</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>77.89762939205913</v>
+        <v>77.89762939205912</v>
       </c>
       <c r="K39" t="n">
-        <v>54.19518858397663</v>
+        <v>54.19518858397662</v>
       </c>
       <c r="L39" t="n">
-        <v>334.5203018396773</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>429.385020286218</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>98.87572286666868</v>
       </c>
       <c r="K41" t="n">
-        <v>96.93804915882066</v>
+        <v>216.7377741694001</v>
       </c>
       <c r="L41" t="n">
-        <v>82.98571490296737</v>
+        <v>202.7854399135468</v>
       </c>
       <c r="M41" t="n">
-        <v>60.34826671336754</v>
+        <v>60.34826671336751</v>
       </c>
       <c r="N41" t="n">
-        <v>176.464077267668</v>
+        <v>56.66435225708852</v>
       </c>
       <c r="O41" t="n">
-        <v>136.9564894058876</v>
+        <v>186.7762268911031</v>
       </c>
       <c r="P41" t="n">
-        <v>211.8121156265968</v>
+        <v>206.9717226968764</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>117.7568133992351</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>77.89762939205912</v>
       </c>
       <c r="K42" t="n">
-        <v>54.19518858397663</v>
+        <v>173.9949135945561</v>
       </c>
       <c r="L42" t="n">
-        <v>145.8813985521431</v>
+        <v>26.08167354156363</v>
       </c>
       <c r="M42" t="n">
-        <v>10.88369073674011</v>
+        <v>10.88369073674008</v>
       </c>
       <c r="N42" t="n">
         <v>116.4172878721053</v>
@@ -11154,10 +11156,10 @@
         <v>139.1496934160454</v>
       </c>
       <c r="P42" t="n">
-        <v>101.8243314419297</v>
+        <v>150.0177373902794</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.85904623308161</v>
+        <v>73.8590462330816</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.8757228666687</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>216.7377741694001</v>
+        <v>96.93804915882065</v>
       </c>
       <c r="L44" t="n">
         <v>202.7854399135468</v>
       </c>
       <c r="M44" t="n">
-        <v>175.3075987942266</v>
+        <v>180.1479917239469</v>
       </c>
       <c r="N44" t="n">
-        <v>56.66435225708855</v>
+        <v>56.66435225708852</v>
       </c>
       <c r="O44" t="n">
-        <v>186.7762268911031</v>
+        <v>66.97650188052364</v>
       </c>
       <c r="P44" t="n">
-        <v>92.01239061601737</v>
+        <v>161.9923781413812</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.7568133992351</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>77.89762939205913</v>
+        <v>77.89762939205912</v>
       </c>
       <c r="K45" t="n">
-        <v>54.19518858397663</v>
+        <v>169.1545206648357</v>
       </c>
       <c r="L45" t="n">
-        <v>26.08167354156365</v>
+        <v>26.08167354156363</v>
       </c>
       <c r="M45" t="n">
-        <v>10.88369073674011</v>
+        <v>10.88369073674008</v>
       </c>
       <c r="N45" t="n">
-        <v>111.576894942385</v>
+        <v>116.4172878721053</v>
       </c>
       <c r="O45" t="n">
         <v>139.1496934160454</v>
@@ -11394,7 +11396,7 @@
         <v>154.8581303199998</v>
       </c>
       <c r="Q45" t="n">
-        <v>193.6587712436611</v>
+        <v>73.8590462330816</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>366.2680605743383</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.334591514045</v>
+        <v>294.5348665034655</v>
       </c>
       <c r="H11" t="n">
-        <v>313.0939957929614</v>
+        <v>329.5597768821036</v>
       </c>
       <c r="I11" t="n">
         <v>173.1514408633813</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>67.15871757582615</v>
+        <v>186.9584425864056</v>
       </c>
       <c r="T11" t="n">
-        <v>99.05806543378019</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U11" t="n">
         <v>131.4684762171699</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>249.9313756678896</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23355,7 +23357,7 @@
         <v>107.2326182767599</v>
       </c>
       <c r="I12" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,13 +23387,13 @@
         <v>67.9961609982239</v>
       </c>
       <c r="S12" t="n">
-        <v>56.54188033564371</v>
+        <v>128.103733993629</v>
       </c>
       <c r="T12" t="n">
-        <v>78.27708494809418</v>
+        <v>78.27708494809414</v>
       </c>
       <c r="U12" t="n">
-        <v>106.1075778744844</v>
+        <v>225.9073028850638</v>
       </c>
       <c r="V12" t="n">
         <v>113.0008621388458</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>85.88297076672492</v>
       </c>
     </row>
     <row r="13">
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>28.81574800763292</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,10 +23436,10 @@
         <v>158.3660554782562</v>
       </c>
       <c r="I13" t="n">
-        <v>142.3905821537013</v>
+        <v>36.87098436438301</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>62.65579858706204</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R13" t="n">
-        <v>37.96699476501432</v>
+        <v>157.7667197755937</v>
       </c>
       <c r="S13" t="n">
-        <v>96.64860989250268</v>
+        <v>216.4483349030821</v>
       </c>
       <c r="T13" t="n">
         <v>226.0900423897169</v>
       </c>
       <c r="U13" t="n">
-        <v>286.295341521956</v>
+        <v>166.4956165113766</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>112.8434004444518</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>98.78492834151535</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23497,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>348.8071106818653</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>262.1306450616823</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23510,7 +23512,7 @@
         <v>414.334591514045</v>
       </c>
       <c r="H14" t="n">
-        <v>329.5597768821036</v>
+        <v>209.7600518715241</v>
       </c>
       <c r="I14" t="n">
         <v>173.1514408633813</v>
@@ -23540,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>186.9584425864056</v>
       </c>
       <c r="T14" t="n">
-        <v>113.3381926550413</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U14" t="n">
         <v>131.4684762171699</v>
       </c>
       <c r="V14" t="n">
-        <v>207.9525334595555</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>229.4412437068336</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>132.5754395185343</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23589,10 +23591,10 @@
         <v>136.8255133853633</v>
       </c>
       <c r="H15" t="n">
-        <v>1.71302048744154</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I15" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,16 +23624,16 @@
         <v>67.9961609982239</v>
       </c>
       <c r="S15" t="n">
-        <v>42.26175311438264</v>
+        <v>162.0614781249621</v>
       </c>
       <c r="T15" t="n">
-        <v>78.27708494809418</v>
+        <v>78.27708494809414</v>
       </c>
       <c r="U15" t="n">
         <v>106.1075778744844</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>113.0008621388458</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23653,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>47.44709608804841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>26.63423763598975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23695,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R16" t="n">
         <v>157.7667197755937</v>
@@ -23704,22 +23706,22 @@
         <v>216.4483349030821</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0900423897169</v>
+        <v>183.2262431874606</v>
       </c>
       <c r="U16" t="n">
-        <v>166.4956165113766</v>
+        <v>286.295341521956</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>132.3379183132486</v>
       </c>
       <c r="W16" t="n">
-        <v>243.6591991343347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>105.9099303784577</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>98.78492834151535</v>
       </c>
     </row>
     <row r="17">
@@ -23741,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.334591514045</v>
       </c>
       <c r="H17" t="n">
-        <v>49.87907695538917</v>
+        <v>148.9116571559997</v>
       </c>
       <c r="I17" t="n">
         <v>173.1514408633813</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.9584425864056</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2682012277493</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>61.19916277516442</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8255133853633</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23871,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>28.59908125635479</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23896,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>119.2916798484049</v>
+        <v>167.5567023919862</v>
       </c>
       <c r="H19" t="n">
         <v>158.3660554782562</v>
@@ -23911,7 +23913,7 @@
         <v>142.3905821537013</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>62.65579858706204</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>226.0900423897169</v>
       </c>
       <c r="U19" t="n">
-        <v>286.295341521956</v>
+        <v>28.94055774474344</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>210.8281227594465</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.334591514045</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.5597768821036</v>
       </c>
       <c r="I20" t="n">
         <v>173.1514408633813</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>186.9584425864056</v>
       </c>
       <c r="T20" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2682012277493</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>42.34059248418129</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8255133853633</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24105,13 +24107,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>184.1838946321574</v>
       </c>
       <c r="X21" t="n">
-        <v>113.1580450018205</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>167.5567023919862</v>
       </c>
       <c r="H22" t="n">
-        <v>138.1219783990113</v>
+        <v>158.3660554782562</v>
       </c>
       <c r="I22" t="n">
         <v>142.3905821537013</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R22" t="n">
-        <v>157.7667197755937</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>216.4483349030821</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0900423897169</v>
       </c>
       <c r="U22" t="n">
         <v>286.295341521956</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>231.5085886149562</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.334591514045</v>
@@ -24251,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S23" t="n">
         <v>186.9584425864056</v>
       </c>
       <c r="T23" t="n">
-        <v>61.96329667561835</v>
+        <v>218.8577904443596</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2682012277493</v>
+        <v>124.2745297415397</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24285,25 +24287,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.3445931464628</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>51.71554209705182</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9073028850638</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.79726926825033</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>157.7667197755937</v>
@@ -24415,16 +24417,16 @@
         <v>216.4483349030821</v>
       </c>
       <c r="T25" t="n">
-        <v>226.0900423897169</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.295341521956</v>
       </c>
       <c r="V25" t="n">
-        <v>220.1758314859313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>97.49153717350163</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>185.9778501686439</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>343.7053353731634</v>
+        <v>414.334591514045</v>
       </c>
       <c r="H26" t="n">
         <v>329.5597768821036</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S26" t="n">
-        <v>186.9584425864056</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2682012277493</v>
@@ -24506,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24525,22 +24527,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8255133853633</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.2326182767599</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,13 +24572,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>39.12834400945728</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>112.3074611970328</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2255550885601</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24619,7 +24621,7 @@
         <v>158.3660554782562</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142.3905821537013</v>
       </c>
       <c r="J28" t="n">
         <v>62.65579858706204</v>
@@ -24643,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R28" t="n">
-        <v>157.7667197755937</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>216.4483349030821</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>226.0900423897169</v>
@@ -24658,13 +24660,13 @@
         <v>286.295341521956</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>161.4339251814473</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,13 +24691,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>132.7401024210824</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.334591514045</v>
       </c>
       <c r="H29" t="n">
-        <v>329.5597768821036</v>
+        <v>192.30674451968</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>186.9584425864056</v>
       </c>
       <c r="T29" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2682012277493</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>98.10066783474178</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I30" t="n">
-        <v>71.56185365798537</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9073028850638</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>185.3149889935604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24880,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.79726926825033</v>
+        <v>27.41687373999268</v>
       </c>
       <c r="R31" t="n">
         <v>157.7667197755937</v>
       </c>
       <c r="S31" t="n">
-        <v>216.4483349030821</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.0900423897169</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.295341521956</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>107.8995670374904</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.334591514045</v>
       </c>
       <c r="H32" t="n">
         <v>329.5597768821036</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>49.92918861224928</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S32" t="n">
-        <v>186.9584425864056</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2682012277493</v>
@@ -24977,10 +24979,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>132.7401024210824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>66.97016696142548</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>39.12834400945671</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.2326182767599</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25047,19 +25049,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.0768099586736</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.79726926825033</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>157.7667197755937</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>216.4483349030821</v>
+        <v>185.1835935155864</v>
       </c>
       <c r="T34" t="n">
-        <v>226.0900423897169</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.295341521956</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>39.9612220529942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>82.63661991367269</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>294.1101278845561</v>
+        <v>414.334591514045</v>
       </c>
       <c r="H35" t="n">
-        <v>329.5597768821036</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>173.1514408633813</v>
@@ -25199,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.05381670017611</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>186.9584425864056</v>
       </c>
       <c r="T35" t="n">
-        <v>218.8577904443596</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2682012277493</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,22 +25232,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>152.3256885462114</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.0768099586736</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25296,10 +25298,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>10.17985308729973</v>
       </c>
     </row>
     <row r="37">
@@ -25315,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>45.56608312316909</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.5567023919862</v>
@@ -25354,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R37" t="n">
         <v>157.7667197755937</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>216.4483349030821</v>
       </c>
       <c r="T37" t="n">
         <v>226.0900423897169</v>
@@ -25369,10 +25371,10 @@
         <v>286.295341521956</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>73.74186883936241</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25394,19 +25396,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>248.9481126518776</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.5597768821036</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>173.1514408633813</v>
@@ -25442,7 +25444,7 @@
         <v>186.9584425864056</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>186.6799028500559</v>
       </c>
       <c r="U38" t="n">
         <v>251.2682012277493</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>141.7958492461432</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25521,13 +25523,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.0768099586736</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>173.3394755549495</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25591,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.79726926825033</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>157.7667197755937</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>216.4483349030821</v>
+        <v>185.1835935155864</v>
       </c>
       <c r="T40" t="n">
-        <v>226.0900423897169</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.295341521956</v>
       </c>
       <c r="V40" t="n">
-        <v>73.74186883936238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>277.2142438741622</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25646,7 +25648,7 @@
         <v>329.5597768821036</v>
       </c>
       <c r="I41" t="n">
-        <v>173.1514408633813</v>
+        <v>53.35171585280187</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.05381670017611</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S41" t="n">
         <v>186.9584425864056</v>
@@ -25685,7 +25687,7 @@
         <v>251.2682012277493</v>
       </c>
       <c r="V41" t="n">
-        <v>222.2326606808165</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>229.4412437068336</v>
@@ -25694,7 +25696,7 @@
         <v>249.9313756678896</v>
       </c>
       <c r="Y41" t="n">
-        <v>266.4382136454741</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.5754395185344</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25722,10 +25724,10 @@
         <v>136.8255133853633</v>
       </c>
       <c r="H42" t="n">
-        <v>107.2326182767599</v>
+        <v>1.713020487441497</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>71.56185365798537</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>67.9961609982239</v>
       </c>
       <c r="S42" t="n">
-        <v>162.0614781249621</v>
+        <v>42.26175311438263</v>
       </c>
       <c r="T42" t="n">
-        <v>78.27708494809418</v>
+        <v>78.27708494809414</v>
       </c>
       <c r="U42" t="n">
-        <v>106.1075778744844</v>
+        <v>225.9073028850638</v>
       </c>
       <c r="V42" t="n">
         <v>113.0008621388458</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.31238239261894</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>47.44709608804841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5567023919862</v>
+        <v>47.75697738140676</v>
       </c>
       <c r="H43" t="n">
         <v>158.3660554782562</v>
@@ -25828,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R43" t="n">
-        <v>37.96699476501432</v>
+        <v>37.96699476501431</v>
       </c>
       <c r="S43" t="n">
         <v>216.4483349030821</v>
@@ -25840,19 +25842,19 @@
         <v>226.0900423897169</v>
       </c>
       <c r="U43" t="n">
-        <v>286.295341521956</v>
+        <v>166.4956165113766</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>181.0034005472727</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.78492834151537</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>262.9341166529011</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>301.3564479523931</v>
       </c>
       <c r="G44" t="n">
         <v>414.334591514045</v>
@@ -25883,7 +25885,7 @@
         <v>329.5597768821036</v>
       </c>
       <c r="I44" t="n">
-        <v>156.685659774239</v>
+        <v>173.1514408633813</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.0538167001761</v>
       </c>
       <c r="S44" t="n">
         <v>186.9584425864056</v>
@@ -25919,19 +25921,19 @@
         <v>99.05806543378017</v>
       </c>
       <c r="U44" t="n">
-        <v>131.4684762171699</v>
+        <v>251.2682012277493</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>229.4412437068336</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>266.4382136454741</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61.01358586054896</v>
+        <v>46.7334586392879</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>37.84535544482151</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>39.5496146040655</v>
       </c>
       <c r="G45" t="n">
-        <v>17.02578837478382</v>
+        <v>136.8255133853633</v>
       </c>
       <c r="H45" t="n">
         <v>107.2326182767599</v>
@@ -26007,7 +26009,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>85.97326019289804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>85.88297076672492</v>
@@ -26032,10 +26034,10 @@
         <v>26.63423763598973</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>25.62132301235181</v>
       </c>
       <c r="G46" t="n">
-        <v>47.75697738140676</v>
+        <v>62.03710460266781</v>
       </c>
       <c r="H46" t="n">
         <v>38.56633046767675</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.79726926825033</v>
+        <v>49.79726926825032</v>
       </c>
       <c r="R46" t="n">
         <v>157.7667197755937</v>
@@ -26086,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>120.1900575997188</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>348379.6952700331</v>
+        <v>348379.6952700332</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>592908.0761353587</v>
+        <v>592908.0761353585</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>592908.0761353588</v>
+        <v>592908.0761353585</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592908.0761353588</v>
+        <v>592908.0761353587</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592908.0761353585</v>
+        <v>592908.0761353587</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>592908.0761353588</v>
+        <v>592908.0761353585</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592908.0761353587</v>
+        <v>592908.0761353585</v>
       </c>
     </row>
     <row r="15">
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377789</v>
+      </c>
+      <c r="C2" t="n">
         <v>614457.2540377788</v>
       </c>
-      <c r="C2" t="n">
-        <v>614457.2540377787</v>
-      </c>
       <c r="D2" t="n">
-        <v>614457.2540377787</v>
+        <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>226216.5491054986</v>
+        <v>226216.5491054985</v>
       </c>
       <c r="F2" t="n">
         <v>226216.5491054986</v>
       </c>
       <c r="G2" t="n">
+        <v>366632.6881294646</v>
+      </c>
+      <c r="H2" t="n">
         <v>366632.6881294647</v>
       </c>
-      <c r="H2" t="n">
-        <v>366632.6881294648</v>
-      </c>
       <c r="I2" t="n">
-        <v>366632.6881294649</v>
+        <v>366632.6881294647</v>
       </c>
       <c r="J2" t="n">
-        <v>366632.6881294648</v>
+        <v>366632.6881294646</v>
       </c>
       <c r="K2" t="n">
-        <v>366632.6881294649</v>
+        <v>366632.6881294646</v>
       </c>
       <c r="L2" t="n">
-        <v>366632.6881294649</v>
+        <v>366632.6881294647</v>
       </c>
       <c r="M2" t="n">
-        <v>366632.6881294648</v>
+        <v>366632.6881294646</v>
       </c>
       <c r="N2" t="n">
         <v>366632.6881294646</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29854.57067153644</v>
+        <v>29854.57067153642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>104454.9107866298</v>
       </c>
       <c r="H4" t="n">
-        <v>104454.9107866298</v>
+        <v>104454.9107866297</v>
       </c>
       <c r="I4" t="n">
         <v>104454.9107866298</v>
@@ -26448,13 +26450,13 @@
         <v>104454.9107866298</v>
       </c>
       <c r="M4" t="n">
-        <v>104454.9107866298</v>
+        <v>104454.9107866297</v>
       </c>
       <c r="N4" t="n">
         <v>104454.9107866298</v>
       </c>
       <c r="O4" t="n">
-        <v>46861.51430909237</v>
+        <v>46861.51430909236</v>
       </c>
       <c r="P4" t="n">
         <v>46861.51430909237</v>
@@ -26482,28 +26484,28 @@
         <v>12533.83700805436</v>
       </c>
       <c r="G5" t="n">
-        <v>36576.26094818373</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="H5" t="n">
-        <v>36576.26094818373</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="I5" t="n">
         <v>36576.26094818373</v>
       </c>
       <c r="J5" t="n">
-        <v>36576.26094818371</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="K5" t="n">
-        <v>36576.26094818371</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="L5" t="n">
-        <v>36576.26094818371</v>
+        <v>36576.26094818373</v>
       </c>
       <c r="M5" t="n">
-        <v>36576.26094818373</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="N5" t="n">
-        <v>36576.26094818371</v>
+        <v>36576.26094818372</v>
       </c>
       <c r="O5" t="n">
         <v>12533.83700805436</v>
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>171432.6257013924</v>
+      </c>
+      <c r="C6" t="n">
         <v>171432.6257013923</v>
       </c>
-      <c r="C6" t="n">
-        <v>171432.6257013922</v>
-      </c>
       <c r="D6" t="n">
-        <v>171432.6257013922</v>
+        <v>171432.6257013923</v>
       </c>
       <c r="E6" t="n">
-        <v>-62428.95068215427</v>
+        <v>-62428.95068215446</v>
       </c>
       <c r="F6" t="n">
         <v>166821.1977883519</v>
       </c>
       <c r="G6" t="n">
-        <v>117218.8228809941</v>
+        <v>117218.8228809939</v>
       </c>
       <c r="H6" t="n">
         <v>225601.5163946513</v>
       </c>
       <c r="I6" t="n">
-        <v>225601.5163946514</v>
+        <v>225601.5163946512</v>
       </c>
       <c r="J6" t="n">
-        <v>225601.5163946513</v>
+        <v>225601.5163946511</v>
       </c>
       <c r="K6" t="n">
-        <v>225601.5163946514</v>
+        <v>225601.5163946511</v>
       </c>
       <c r="L6" t="n">
-        <v>225601.5163946514</v>
+        <v>225601.5163946512</v>
       </c>
       <c r="M6" t="n">
-        <v>195746.9457231149</v>
+        <v>195746.9457231147</v>
       </c>
       <c r="N6" t="n">
         <v>225601.5163946511</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="F3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="G3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="H3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="I3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="J3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="K3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="L3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="M3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="N3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="O3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="P3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
     </row>
     <row r="4">
@@ -26802,10 +26804,10 @@
         <v>119.7997250105794</v>
       </c>
       <c r="G4" t="n">
-        <v>515.234329289023</v>
+        <v>515.2343292890229</v>
       </c>
       <c r="H4" t="n">
-        <v>515.234329289023</v>
+        <v>515.2343292890229</v>
       </c>
       <c r="I4" t="n">
         <v>515.234329289023</v>
@@ -26817,10 +26819,10 @@
         <v>515.2343292890229</v>
       </c>
       <c r="L4" t="n">
+        <v>515.234329289023</v>
+      </c>
+      <c r="M4" t="n">
         <v>515.2343292890229</v>
-      </c>
-      <c r="M4" t="n">
-        <v>515.234329289023</v>
       </c>
       <c r="N4" t="n">
         <v>515.2343292890229</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>240.8263177711527</v>
+        <v>240.8263177711528</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>395.4346042784435</v>
+        <v>395.4346042784434</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>395.4346042784435</v>
+        <v>395.4346042784434</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H11" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I11" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J11" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K11" t="n">
         <v>123.1518018861599</v>
@@ -31780,19 +31782,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R11" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S11" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T11" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,13 +31840,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J12" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K12" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L12" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M12" t="n">
         <v>131.2503431852782</v>
@@ -31856,16 +31858,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P12" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R12" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S12" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T12" t="n">
         <v>2.087918736148012</v>
@@ -31923,7 +31925,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L13" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M13" t="n">
         <v>68.07488848078665</v>
@@ -31932,19 +31934,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O13" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P13" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R13" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S13" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T13" t="n">
         <v>1.855547038564619</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H14" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I14" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J14" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K14" t="n">
         <v>123.1518018861599</v>
@@ -32017,19 +32019,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R14" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S14" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T14" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,13 +32077,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J15" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K15" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L15" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M15" t="n">
         <v>131.2503431852782</v>
@@ -32093,16 +32095,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P15" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R15" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S15" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T15" t="n">
         <v>2.087918736148012</v>
@@ -32160,7 +32162,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L16" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M16" t="n">
         <v>68.07488848078665</v>
@@ -32169,19 +32171,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O16" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P16" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R16" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S16" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T16" t="n">
         <v>1.855547038564619</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H17" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I17" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J17" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K17" t="n">
         <v>123.1518018861599</v>
@@ -32254,19 +32256,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R17" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S17" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T17" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,13 +32314,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J18" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K18" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L18" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M18" t="n">
         <v>131.2503431852782</v>
@@ -32330,16 +32332,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P18" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q18" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R18" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S18" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T18" t="n">
         <v>2.087918736148012</v>
@@ -32397,7 +32399,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L19" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M19" t="n">
         <v>68.07488848078665</v>
@@ -32406,19 +32408,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O19" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P19" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R19" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S19" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T19" t="n">
         <v>1.855547038564619</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H20" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I20" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J20" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K20" t="n">
         <v>123.1518018861599</v>
@@ -32491,19 +32493,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R20" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S20" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T20" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,13 +32551,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J21" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K21" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L21" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M21" t="n">
         <v>131.2503431852782</v>
@@ -32567,16 +32569,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P21" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q21" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R21" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S21" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T21" t="n">
         <v>2.087918736148012</v>
@@ -32634,7 +32636,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L22" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M22" t="n">
         <v>68.07488848078665</v>
@@ -32643,19 +32645,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O22" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P22" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R22" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S22" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T22" t="n">
         <v>1.855547038564619</v>
@@ -32698,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H23" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I23" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J23" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K23" t="n">
         <v>123.1518018861599</v>
@@ -32728,19 +32730,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R23" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S23" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T23" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,13 +32788,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J24" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K24" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L24" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M24" t="n">
         <v>131.2503431852782</v>
@@ -32804,16 +32806,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P24" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q24" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R24" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S24" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T24" t="n">
         <v>2.087918736148012</v>
@@ -32871,7 +32873,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L25" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M25" t="n">
         <v>68.07488848078665</v>
@@ -32880,19 +32882,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O25" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P25" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R25" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S25" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T25" t="n">
         <v>1.855547038564619</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H26" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I26" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J26" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K26" t="n">
         <v>123.1518018861599</v>
@@ -32965,19 +32967,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q26" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R26" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S26" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T26" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,13 +33025,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J27" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K27" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L27" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M27" t="n">
         <v>131.2503431852782</v>
@@ -33041,16 +33043,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P27" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q27" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R27" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S27" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T27" t="n">
         <v>2.087918736148012</v>
@@ -33108,7 +33110,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L28" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M28" t="n">
         <v>68.07488848078665</v>
@@ -33117,19 +33119,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O28" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P28" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R28" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S28" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T28" t="n">
         <v>1.855547038564619</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H29" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I29" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J29" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K29" t="n">
         <v>123.1518018861599</v>
@@ -33202,19 +33204,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q29" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R29" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S29" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T29" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,13 +33262,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J30" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K30" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L30" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M30" t="n">
         <v>131.2503431852782</v>
@@ -33278,16 +33280,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P30" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q30" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R30" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S30" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T30" t="n">
         <v>2.087918736148012</v>
@@ -33345,7 +33347,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L31" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M31" t="n">
         <v>68.07488848078665</v>
@@ -33354,19 +33356,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O31" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P31" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R31" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S31" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T31" t="n">
         <v>1.855547038564619</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H32" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I32" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J32" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K32" t="n">
         <v>123.1518018861599</v>
@@ -33439,19 +33441,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R32" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S32" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T32" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,13 +33499,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J33" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K33" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L33" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M33" t="n">
         <v>131.2503431852782</v>
@@ -33515,16 +33517,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P33" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q33" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R33" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S33" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T33" t="n">
         <v>2.087918736148012</v>
@@ -33582,7 +33584,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L34" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M34" t="n">
         <v>68.07488848078665</v>
@@ -33591,19 +33593,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O34" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P34" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R34" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S34" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T34" t="n">
         <v>1.855547038564619</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H35" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I35" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J35" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K35" t="n">
         <v>123.1518018861599</v>
@@ -33676,19 +33678,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R35" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S35" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T35" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,13 +33736,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J36" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K36" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L36" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M36" t="n">
         <v>131.2503431852782</v>
@@ -33752,16 +33754,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P36" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R36" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S36" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T36" t="n">
         <v>2.087918736148012</v>
@@ -33819,7 +33821,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L37" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M37" t="n">
         <v>68.07488848078665</v>
@@ -33828,19 +33830,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O37" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P37" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R37" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S37" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T37" t="n">
         <v>1.855547038564619</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H38" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I38" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J38" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K38" t="n">
         <v>123.1518018861599</v>
@@ -33913,19 +33915,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R38" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S38" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T38" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,13 +33973,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J39" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K39" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L39" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M39" t="n">
         <v>131.2503431852782</v>
@@ -33989,16 +33991,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P39" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q39" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R39" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S39" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T39" t="n">
         <v>2.087918736148012</v>
@@ -34056,7 +34058,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L40" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M40" t="n">
         <v>68.07488848078665</v>
@@ -34065,19 +34067,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O40" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P40" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R40" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S40" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T40" t="n">
         <v>1.855547038564619</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H41" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I41" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J41" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K41" t="n">
         <v>123.1518018861599</v>
@@ -34150,19 +34152,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q41" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R41" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S41" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T41" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,13 +34210,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J42" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K42" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L42" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M42" t="n">
         <v>131.2503431852782</v>
@@ -34226,16 +34228,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P42" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R42" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S42" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T42" t="n">
         <v>2.087918736148012</v>
@@ -34293,7 +34295,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L43" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M43" t="n">
         <v>68.07488848078665</v>
@@ -34302,19 +34304,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O43" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P43" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R43" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S43" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T43" t="n">
         <v>1.855547038564619</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9681460010900604</v>
+        <v>0.9681460010900607</v>
       </c>
       <c r="H44" t="n">
-        <v>9.915025233663584</v>
+        <v>9.915025233663586</v>
       </c>
       <c r="I44" t="n">
-        <v>37.32444870702459</v>
+        <v>37.3244487070246</v>
       </c>
       <c r="J44" t="n">
-        <v>82.17018166001759</v>
+        <v>82.1701816600176</v>
       </c>
       <c r="K44" t="n">
         <v>123.1518018861599</v>
@@ -34387,19 +34389,19 @@
         <v>139.2206051392522</v>
       </c>
       <c r="Q44" t="n">
-        <v>104.5488764752143</v>
+        <v>104.5488764752144</v>
       </c>
       <c r="R44" t="n">
-        <v>60.81530124097357</v>
+        <v>60.81530124097358</v>
       </c>
       <c r="S44" t="n">
-        <v>22.06162699983977</v>
+        <v>22.06162699983978</v>
       </c>
       <c r="T44" t="n">
-        <v>4.238059119771742</v>
+        <v>4.238059119771743</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07745168008720482</v>
+        <v>0.07745168008720484</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,13 +34447,13 @@
         <v>17.83477919342971</v>
       </c>
       <c r="J45" t="n">
-        <v>48.93999727460756</v>
+        <v>48.93999727460757</v>
       </c>
       <c r="K45" t="n">
-        <v>83.64625039038236</v>
+        <v>83.64625039038238</v>
       </c>
       <c r="L45" t="n">
-        <v>112.4727062383105</v>
+        <v>112.4727062383106</v>
       </c>
       <c r="M45" t="n">
         <v>131.2503431852782</v>
@@ -34463,16 +34465,16 @@
         <v>123.2462760389785</v>
       </c>
       <c r="P45" t="n">
-        <v>98.91600210490989</v>
+        <v>98.91600210490991</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.1227278529399</v>
+        <v>66.12272785293992</v>
       </c>
       <c r="R45" t="n">
         <v>32.16167315441924</v>
       </c>
       <c r="S45" t="n">
-        <v>9.621692978875766</v>
+        <v>9.621692978875767</v>
       </c>
       <c r="T45" t="n">
         <v>2.087918736148012</v>
@@ -34530,7 +34532,7 @@
         <v>50.45508755926772</v>
       </c>
       <c r="L46" t="n">
-        <v>64.5651409972038</v>
+        <v>64.56514099720381</v>
       </c>
       <c r="M46" t="n">
         <v>68.07488848078665</v>
@@ -34539,19 +34541,19 @@
         <v>66.45621978757076</v>
       </c>
       <c r="O46" t="n">
-        <v>61.38307522468661</v>
+        <v>61.38307522468662</v>
       </c>
       <c r="P46" t="n">
         <v>52.52382510864614</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.36477398344406</v>
+        <v>36.36477398344407</v>
       </c>
       <c r="R46" t="n">
-        <v>19.52667160157575</v>
+        <v>19.52667160157576</v>
       </c>
       <c r="S46" t="n">
-        <v>7.568263133890157</v>
+        <v>7.568263133890158</v>
       </c>
       <c r="T46" t="n">
         <v>1.855547038564619</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>20.40115482018949</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>119.7997250105794</v>
@@ -35422,13 +35424,13 @@
         <v>119.7997250105794</v>
       </c>
       <c r="O11" t="n">
-        <v>114.959332080859</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>48.19340594834971</v>
       </c>
       <c r="K12" t="n">
-        <v>63.38348899403521</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="L12" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="M12" t="n">
+        <v>63.38348899403523</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.382437138474131</v>
+      </c>
+      <c r="O12" t="n">
         <v>119.7997250105794</v>
       </c>
-      <c r="N12" t="n">
-        <v>3.382437138474103</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,7 +35573,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L13" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M13" t="n">
         <v>107.6587654426272</v>
@@ -35583,7 +35585,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P13" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>70.22089230540507</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="N14" t="n">
-        <v>69.97998752536388</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>114.9593320808591</v>
       </c>
       <c r="P14" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>94.55817726066954</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>48.19340594834971</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>114.9593320808591</v>
       </c>
       <c r="M15" t="n">
-        <v>66.76592613250934</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="O15" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L16" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M16" t="n">
         <v>107.6587654426272</v>
@@ -35820,7 +35822,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P16" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>70.22089230540547</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K17" t="n">
         <v>227.2073634123441</v>
@@ -35902,7 +35904,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,13 +35971,13 @@
         <v>344.7586717618955</v>
       </c>
       <c r="M18" t="n">
-        <v>454.8213730132598</v>
+        <v>454.8213730132599</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7248114820276</v>
+        <v>324.1595551440616</v>
       </c>
       <c r="O18" t="n">
-        <v>215.947094533298</v>
+        <v>374.5123508712636</v>
       </c>
       <c r="P18" t="n">
         <v>283.4043633305168</v>
@@ -36045,7 +36047,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L19" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M19" t="n">
         <v>107.6587654426272</v>
@@ -36057,7 +36059,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P19" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K20" t="n">
-        <v>227.2073634123441</v>
+        <v>227.2073634123439</v>
       </c>
       <c r="L20" t="n">
         <v>334.6754996474831</v>
@@ -36139,7 +36141,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q20" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>48.19340594834971</v>
       </c>
       <c r="K21" t="n">
         <v>210.270048428602</v>
       </c>
       <c r="L21" t="n">
-        <v>98.16857986951216</v>
+        <v>49.97517392116193</v>
       </c>
       <c r="M21" t="n">
-        <v>454.8213730132598</v>
+        <v>454.8213730132599</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7248114820276</v>
+        <v>482.7248114820277</v>
       </c>
       <c r="O21" t="n">
         <v>374.5123508712636</v>
@@ -36282,7 +36284,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L22" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M22" t="n">
         <v>107.6587654426272</v>
@@ -36294,7 +36296,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P22" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K23" t="n">
         <v>227.2073634123441</v>
@@ -36376,7 +36378,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q23" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>48.19340594834971</v>
       </c>
       <c r="K24" t="n">
-        <v>210.270048428602</v>
+        <v>51.7047920906363</v>
       </c>
       <c r="L24" t="n">
         <v>344.7586717618955</v>
       </c>
       <c r="M24" t="n">
-        <v>454.8213730132598</v>
+        <v>454.8213730132599</v>
       </c>
       <c r="N24" t="n">
-        <v>187.9413136412945</v>
+        <v>482.7248114820277</v>
       </c>
       <c r="O24" t="n">
         <v>374.5123508712636</v>
@@ -36455,7 +36457,7 @@
         <v>283.4043633305168</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.2182415027675</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36521,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L25" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M25" t="n">
         <v>107.6587654426272</v>
@@ -36531,7 +36533,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P25" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K26" t="n">
         <v>227.2073634123441</v>
@@ -36613,7 +36615,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>48.19340594834971</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>210.270048428602</v>
       </c>
       <c r="L27" t="n">
-        <v>260.245222349764</v>
+        <v>344.7586717618955</v>
       </c>
       <c r="M27" t="n">
-        <v>454.8213730132598</v>
+        <v>160.0378751725262</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7248114820276</v>
+        <v>482.7248114820277</v>
       </c>
       <c r="O27" t="n">
         <v>374.5123508712636</v>
@@ -36756,7 +36758,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L28" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M28" t="n">
         <v>107.6587654426272</v>
@@ -36768,7 +36770,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P28" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K29" t="n">
         <v>227.2073634123441</v>
@@ -36850,7 +36852,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>48.19340594834971</v>
       </c>
       <c r="K30" t="n">
-        <v>51.70479209063591</v>
+        <v>210.270048428602</v>
       </c>
       <c r="L30" t="n">
         <v>344.7586717618955</v>
       </c>
       <c r="M30" t="n">
-        <v>454.8213730132598</v>
+        <v>454.8213730132599</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7248114820276</v>
+        <v>187.9413136412941</v>
       </c>
       <c r="O30" t="n">
         <v>374.5123508712636</v>
@@ -36929,7 +36931,7 @@
         <v>283.4043633305168</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>136.2182415027675</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L31" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M31" t="n">
         <v>107.6587654426272</v>
@@ -37005,7 +37007,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P31" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K32" t="n">
         <v>227.2073634123441</v>
@@ -37087,7 +37089,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q32" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,10 +37156,10 @@
         <v>344.7586717618955</v>
       </c>
       <c r="M33" t="n">
-        <v>454.8213730132598</v>
+        <v>454.8213730132599</v>
       </c>
       <c r="N33" t="n">
-        <v>324.1595551440616</v>
+        <v>187.9413136412945</v>
       </c>
       <c r="O33" t="n">
         <v>374.5123508712636</v>
@@ -37166,7 +37168,7 @@
         <v>283.4043633305168</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>136.2182415027675</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37232,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L34" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M34" t="n">
         <v>107.6587654426272</v>
@@ -37242,7 +37244,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P34" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K35" t="n">
-        <v>227.2073634123445</v>
+        <v>227.2073634123441</v>
       </c>
       <c r="L35" t="n">
         <v>334.6754996474831</v>
@@ -37324,7 +37326,7 @@
         <v>229.7863175554653</v>
       </c>
       <c r="Q35" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>344.7586717618955</v>
       </c>
       <c r="M36" t="n">
-        <v>454.8213730132598</v>
+        <v>443.4422385030431</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7248114820276</v>
+        <v>482.7248114820277</v>
       </c>
       <c r="O36" t="n">
-        <v>79.72885303053056</v>
+        <v>374.5123508712636</v>
       </c>
       <c r="P36" t="n">
-        <v>283.4043633305168</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>136.2182415027675</v>
@@ -37467,7 +37469,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L37" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M37" t="n">
         <v>107.6587654426272</v>
@@ -37479,7 +37481,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P37" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>70.22089230540507</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K38" t="n">
         <v>227.2073634123441</v>
@@ -37552,16 +37554,16 @@
         <v>389.165266779465</v>
       </c>
       <c r="N38" t="n">
-        <v>380.6825721548956</v>
+        <v>380.6825721548954</v>
       </c>
       <c r="O38" t="n">
         <v>313.8236793822217</v>
       </c>
       <c r="P38" t="n">
-        <v>229.7863175554652</v>
+        <v>229.7863175554653</v>
       </c>
       <c r="Q38" t="n">
-        <v>94.55817726066954</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>308.4386282981137</v>
+        <v>344.7586717618955</v>
       </c>
       <c r="M39" t="n">
-        <v>454.8213730132598</v>
+        <v>418.5013295494779</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7248114820276</v>
+        <v>482.7248114820277</v>
       </c>
       <c r="O39" t="n">
         <v>374.5123508712636</v>
@@ -37704,7 +37706,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L40" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M40" t="n">
         <v>107.6587654426272</v>
@@ -37716,7 +37718,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P40" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>70.22089230540507</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>119.7997250105794</v>
       </c>
-      <c r="O41" t="n">
-        <v>69.97998752536388</v>
-      </c>
       <c r="P41" t="n">
-        <v>119.7997250105794</v>
+        <v>114.9593320808591</v>
       </c>
       <c r="Q41" t="n">
-        <v>94.55817726066954</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>48.19340594834971</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="L42" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>119.7997250105794</v>
       </c>
       <c r="P42" t="n">
-        <v>66.76592613250935</v>
+        <v>114.9593320808591</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L43" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M43" t="n">
         <v>107.6587654426272</v>
@@ -37953,7 +37955,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P43" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>70.22089230540509</v>
       </c>
       <c r="K44" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>119.7997250105794</v>
       </c>
       <c r="M44" t="n">
-        <v>114.9593320808591</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>69.97998752536381</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>94.55817726066955</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>114.9593320808591</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>114.9593320808591</v>
+        <v>119.7997250105794</v>
       </c>
       <c r="O45" t="n">
         <v>119.7997250105794</v>
@@ -38114,7 +38116,7 @@
         <v>119.7997250105794</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.7997250105794</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38180,7 @@
         <v>28.18559573338487</v>
       </c>
       <c r="L46" t="n">
-        <v>92.15516625751994</v>
+        <v>92.15516625751995</v>
       </c>
       <c r="M46" t="n">
         <v>107.6587654426272</v>
@@ -38190,7 +38192,7 @@
         <v>85.9682031387263</v>
       </c>
       <c r="P46" t="n">
-        <v>49.80238437353962</v>
+        <v>49.80238437353963</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
